--- a/struttura.xlsx
+++ b/struttura.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="944">
   <si>
     <t>ID_VOCE</t>
   </si>
@@ -1632,13 +1632,1237 @@
   </si>
   <si>
     <t>Assetto territoriale (S_ASS_PL)</t>
+  </si>
+  <si>
+    <t>Piano Territoriale Paesaggistico Regionale</t>
+  </si>
+  <si>
+    <t>1.15.6.1</t>
+  </si>
+  <si>
+    <t>Carta della utilizzazione reale del suolo del PTPR 1993</t>
+  </si>
+  <si>
+    <t>vuoto, i successivi sono del 1.15.6</t>
+  </si>
+  <si>
+    <t>Carta delle tutele del PTPR 1993</t>
+  </si>
+  <si>
+    <t>1994 - Coperture vettoriali dell'uso del suolo - Edizione 2015</t>
+  </si>
+  <si>
+    <t>2011 - Coperture vettoriali dell'uso del suolo - Edizione 2013</t>
+  </si>
+  <si>
+    <t>2008 - Coperture vettoriali dell'uso del suolo - Edizione 2011</t>
+  </si>
+  <si>
+    <t>2003 - Coperture vettoriali dell'uso del suolo - Edizione 2011</t>
+  </si>
+  <si>
+    <t>1994 - Coperture vettoriali dell'uso del suolo - Edizione 2010</t>
+  </si>
+  <si>
+    <t>1976 - Coperture vettoriali dell'uso del suolo - Edizione 2011</t>
+  </si>
+  <si>
+    <t>1853 - Coperture vettoriali uso del suolo storico - Edizione 2007 (poligoni)</t>
+  </si>
+  <si>
+    <t>1853 - Coperture vettoriali uso del suolo storico - Edizione 2007 (punti)</t>
+  </si>
+  <si>
+    <t>1853 - Coperture vettoriali dell'uso del suolo storico - Edizione 2011 (poligoni)</t>
+  </si>
+  <si>
+    <t>1853 - Coperture vettoriali dell'uso del suolo storico - Edizione 2011 (punti)</t>
+  </si>
+  <si>
+    <t>Epidemiologia</t>
+  </si>
+  <si>
+    <t>Localizzazione servizi</t>
+  </si>
+  <si>
+    <t>1.17.1</t>
+  </si>
+  <si>
+    <t>1.17.2</t>
+  </si>
+  <si>
+    <t>1.18.1</t>
+  </si>
+  <si>
+    <t>1.18.2</t>
+  </si>
+  <si>
+    <t>1.18.3</t>
+  </si>
+  <si>
+    <t>Beni culturali</t>
+  </si>
+  <si>
+    <t>Demografia</t>
+  </si>
+  <si>
+    <t>Istruzione</t>
+  </si>
+  <si>
+    <t>Edifici</t>
+  </si>
+  <si>
+    <t>1.19.1</t>
+  </si>
+  <si>
+    <t>1.19.2</t>
+  </si>
+  <si>
+    <t>1.19.3</t>
+  </si>
+  <si>
+    <t>1.19.4</t>
+  </si>
+  <si>
+    <t>Impianti di monitoraggio ambientale</t>
+  </si>
+  <si>
+    <t>Infrastrutture a rete</t>
+  </si>
+  <si>
+    <t>Produzione di impianti industriali</t>
+  </si>
+  <si>
+    <t>Passaggi a livello - 1:10.000 (Digitale) - Edizione del 1988</t>
+  </si>
+  <si>
+    <t>Ponti - 1:10.000 (Digitale) - Edizione del 1988</t>
+  </si>
+  <si>
+    <t>1.20.1</t>
+  </si>
+  <si>
+    <t>1.20.2</t>
+  </si>
+  <si>
+    <t>1.20.3</t>
+  </si>
+  <si>
+    <t>Aereo</t>
+  </si>
+  <si>
+    <t>Marittimo e fluviale</t>
+  </si>
+  <si>
+    <t>Terrestre</t>
+  </si>
+  <si>
+    <t>Archi ferroviari - 1:10.000 (Digitale) - Edizione del 1988</t>
+  </si>
+  <si>
+    <t>Archi stradali - 1:10.000 (Digitale) - Edizione del 1988</t>
+  </si>
+  <si>
+    <t>Altimetria e morfologia</t>
+  </si>
+  <si>
+    <t>Servizi di pubblica utilità-Comunicazione</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>2.1.3</t>
+  </si>
+  <si>
+    <t>2.1.4</t>
+  </si>
+  <si>
+    <t>2.1.5</t>
+  </si>
+  <si>
+    <t>2.1.6</t>
+  </si>
+  <si>
+    <t>2.1.7</t>
+  </si>
+  <si>
+    <t>2.1.8</t>
+  </si>
+  <si>
+    <t>2.1.9</t>
+  </si>
+  <si>
+    <t>2.1.10</t>
+  </si>
+  <si>
+    <t>2.1.11</t>
+  </si>
+  <si>
+    <t>2.1.12</t>
+  </si>
+  <si>
+    <t>2.1.13</t>
+  </si>
+  <si>
+    <t>2.1.14</t>
+  </si>
+  <si>
+    <t>2.1.15</t>
+  </si>
+  <si>
+    <t>2.1.16</t>
+  </si>
+  <si>
+    <t>2.1.17</t>
+  </si>
+  <si>
+    <t>2.1.18</t>
+  </si>
+  <si>
+    <t>2.1.19</t>
+  </si>
+  <si>
+    <t>Itinerari geologico-ambientali nel Parco Nazionale Foreste Casentinesi 1:60.000 - Edizione 2002</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Itinerari geologico-ambientali nella Val Ceno 1:60.000 - Edizione 1999</t>
+  </si>
+  <si>
+    <t>Itinerari geologico-ambientali nella Val Trebbia 1:30.000 - Edizione 2002</t>
+  </si>
+  <si>
+    <t>Itinerari geologico-ambientali nelle Colline Bolognesi 1:50.000 - Edizione 2001</t>
+  </si>
+  <si>
+    <t>Itinerari geologico-ambientali nelle Terre Matildiche tra Canossa e Quattro Castella 1:15.000 - Edizione 2004</t>
+  </si>
+  <si>
+    <t>2.1.5.1</t>
+  </si>
+  <si>
+    <t>Escursionismo</t>
+  </si>
+  <si>
+    <t>2.1.5.2</t>
+  </si>
+  <si>
+    <t>Itinerari geologico-ambientali nella Valle del Marecchia</t>
+  </si>
+  <si>
+    <t>Itinerari geologico-ambientali nelle terre del piacenziano dalla valle del Vezzeno allo Stirone</t>
+  </si>
+  <si>
+    <t>Trekking &amp; Mountain Bike al Cimone</t>
+  </si>
+  <si>
+    <t>Trekking &amp; Mountain Bike al Corno alle Scale</t>
+  </si>
+  <si>
+    <t>sono del 2.1.5</t>
+  </si>
+  <si>
+    <t>Carta della vegetazione - Alta Val Parma e Cedra - Edizione 2002</t>
+  </si>
+  <si>
+    <t>Carta della vegetazione - Alto Appennino Reggiano Foglio Est - Edizione 2002</t>
+  </si>
+  <si>
+    <t>Carta della vegetazione - Monte Nero (PC) - Edizione 2004</t>
+  </si>
+  <si>
+    <t>Carta della vegetazione - Parco regionale dei Boschi di Carrega - Edizione 1999</t>
+  </si>
+  <si>
+    <t>Carta della vegetazione - Parco regionale dei Gessi Bolognesi e Calanchi dell'Abbadessa - Edizione 1999</t>
+  </si>
+  <si>
+    <t>Carta della vegetazione - Parco regionale dei Laghi di Suviana e Brasimone - Edizione 2002</t>
+  </si>
+  <si>
+    <t>Carta della vegetazione - Parco regionale dei Sassi di Roccamalatina - Edizione 1996</t>
+  </si>
+  <si>
+    <t>Carta della vegetazione - Parco regionale del Corno alle Scale - Edizione 2002</t>
+  </si>
+  <si>
+    <t>Carta della vegetazione - Parco regionale del Delta del Po - Stazione Campotto di Argenta - Edizione 1999</t>
+  </si>
+  <si>
+    <t>Carta della vegetazione - Parco regionale del Delta del Po - Stazione Pineta di Classe e Saline di Cervia - Edizione 1999</t>
+  </si>
+  <si>
+    <t>Carta della vegetazione - Parco regionale del Delta del Po - Stazione Pineta di San Vitale e Piallasse di Ravenna - Edizione 1999</t>
+  </si>
+  <si>
+    <t>Carta della vegetazione - Parco regionale del Delta del Po - Stazione Volano - Mesola - Goro - Edizione 1999</t>
+  </si>
+  <si>
+    <t>Carta della vegetazione - Parco regionale dell'Abbazia di Monteveglio - Edizione del 2004</t>
+  </si>
+  <si>
+    <t>Carta della vegetazione - Parco regionale del Delta del Po - Stazioni Centro storico e Valli di Comacchio - Edizione 1999</t>
+  </si>
+  <si>
+    <t>Carta della vegetazione - Parco regionale dell'alto Appennino Modenese Foglio Est - Edizione 1994</t>
+  </si>
+  <si>
+    <t>Carta della vegetazione - Parco regionale di Monte Sole - Contrafforte Pliocenico - Edizione 1996</t>
+  </si>
+  <si>
+    <t>Carta della vegetazione - Parco regionale fluviale del Taro - Edizione 1999</t>
+  </si>
+  <si>
+    <t>Carta della vegetazione - Parco regionale fluviale dello Stirone - Edizione 2002</t>
+  </si>
+  <si>
+    <t>Carta della vegetazione - Tavola 236 - SE Montese - Edizione 1990</t>
+  </si>
+  <si>
+    <t>Carta della vegetazione - Torriana - Sezione 267010 - Edizione 1995</t>
+  </si>
+  <si>
+    <t>Carta della vegetazione - Valle del Sintria (RA) - Edizione 2004</t>
+  </si>
+  <si>
+    <t>Carta della vegetazione - Versante romagnolo del Parco nazionale delle Foreste Casentinesi - M. Falterona - Campigna - Edizione 1995</t>
+  </si>
+  <si>
+    <t>Carte della vegetazione dei Parchi regionali dell'Emilia-Romagna - Edizione 2004</t>
+  </si>
+  <si>
+    <t>Carta della vegetazione - Parco regionale dell'alto Appennino Modenese Foglio Ovest - Edizione 1994</t>
+  </si>
+  <si>
+    <t>Carta della vegetazione - Alto Appennino Reggiano Foglio Ovest - Edizione 2002</t>
+  </si>
+  <si>
+    <t>Carta Escursionistica 1:10.000 - Parco Regionale Sassi di Roccamalatina - Edizione 2010</t>
+  </si>
+  <si>
+    <t>Carta Escursionistica 1:25.000 - Parco Regionale Gessi Bolognesi e Calanchi dell'Abbadessa, Medie Valli Idice-Zena-Savena - Edizione 2017</t>
+  </si>
+  <si>
+    <t>Carta Escursionistica 1:30.000 - Sentieri del Circuito Val Bidente e Val Rabbi - Edizione 2002</t>
+  </si>
+  <si>
+    <t>Carta Escursionistica dell'Appennino Emiliano-Romagnolo 1:50.000 - Edizione 1996 - 2008</t>
+  </si>
+  <si>
+    <t>Emilia-Romagna tra pianura e collina - Cofanetto</t>
+  </si>
+  <si>
+    <t>Emilia-Romagna tra pianura e collina - Monografie</t>
+  </si>
+  <si>
+    <t>Alta Via dei Parchi - Carte Escursionistiche 1:50.000</t>
+  </si>
+  <si>
+    <t>Alta Via dei Parchi carta nr. 1 - ALTO APPENNINO PARMENSE - Parco nazionale Appennino Tosco-Emiliano e Parco regionale Valli del Cedra e del Parma</t>
+  </si>
+  <si>
+    <t>Alta Via dei Parchi carta nr. 2 - ALTO APPENNINO REGGIANO -Parco nazionale Appennino Tosco-Emiliano</t>
+  </si>
+  <si>
+    <t>Alta Via dei Parchi carta nr. 3 - ALTO APPENNINO MODENESE - Parco regionale Alto Appennino modenese e Parco regionale Corno alle Scale</t>
+  </si>
+  <si>
+    <t>Alta Via dei Parchi carta nr. 4 - ALTO APPENNINO BOLOGNESE - Parco regionale Corno alle Scale e parco regionale laghi di Suviana e Brasimone</t>
+  </si>
+  <si>
+    <t>Alta Via dei Parchi carta nr. 5 - APPENNINO IMOLESE - Parco regionale Vena del Gesso Romagnola ovest</t>
+  </si>
+  <si>
+    <t>Alta Via dei Parchi carta nr. 6 - APPENNINO FAENTINO - Parco regionale Vena del Gesso Romagnola</t>
+  </si>
+  <si>
+    <t>Alta Via dei Parchi carta nr. 7 - ALTO APPENNINO FORLIVESE - Parco nazionale Foreste Casentinesi, monte Falterona e Campigna nord</t>
+  </si>
+  <si>
+    <t>Alta Via dei Parchi carta nr. 8 - ALTO APPENNINO FORLIVESE E CESENATE - Parco nazionale Foreste Casentinesi, monte Falterona e Campigna sud</t>
+  </si>
+  <si>
+    <t>Alta Via dei Parchi - Carte Escursionistiche 1:50.000. Cofanetto contenente 8 carte</t>
+  </si>
+  <si>
+    <t>Carta Escursionistica 1:25.000 - Parco Nazionale delle Foreste Casentinesi, Monte Falterona e Campigna - Edizione 2001</t>
+  </si>
+  <si>
+    <t>Carta Escursionistica 1:25.000 - Comune di Castel d'Aiano - Edizione 2011</t>
+  </si>
+  <si>
+    <t>Carta Escursionistica 1:25.000 - Appennino Tosco-Romagnolo - Percorsi escursionistici fra le valli del Lamone e del Senio. Sentieri Garibaldi e Frassati - Edizione 2012</t>
+  </si>
+  <si>
+    <t>Carta culturale-turistica di Bologna 1:6.000 - 1:25.000 - Edizione 2000</t>
+  </si>
+  <si>
+    <t>Carta da satellite dell'Emilia-Romagna 1:250.000 - Edizione 2000</t>
+  </si>
+  <si>
+    <t>Carta Fisico-Politica 1:250.000 - Edizione 2008</t>
+  </si>
+  <si>
+    <t>Carta Storica Regionale 1:50.000 - Edizione 1999</t>
+  </si>
+  <si>
+    <t>Carta Tecnica Regionale 1:5.000 - Edizione aggiornata</t>
+  </si>
+  <si>
+    <t>Carta Tecnica Regionale 1:5.000 - Prima edizione</t>
+  </si>
+  <si>
+    <t>Carta Topografica Regionale 1:200.000 - Edizione 1981</t>
+  </si>
+  <si>
+    <t>Carta Topografica Regionale 1:25.000 - Edizione definitiva</t>
+  </si>
+  <si>
+    <t>Carta Topografica Regionale 1:25.000 - Edizione provvisoria</t>
+  </si>
+  <si>
+    <t>Carta Topografica Regionale 1:250.000 - Edizione 1994</t>
+  </si>
+  <si>
+    <t>Carta Topografica Regionale 1:50.000 - Edizione 1987</t>
+  </si>
+  <si>
+    <t>Carta Topografica Regionale 1:50.000 - Foglio Speciale Bologna</t>
+  </si>
+  <si>
+    <t>Cartografia topografica locale a grande scala 1:1.000 - Ravenna - Edizione 1979</t>
+  </si>
+  <si>
+    <t>Cartografia topografica locale a grande scala 1:2.000 - Budrio - Edizione 1980</t>
+  </si>
+  <si>
+    <t>Cartografia topografica locale a grande scala 1:2.000 - Cesena - Edizione 1979 - 1981</t>
+  </si>
+  <si>
+    <t>Cartografia topografica locale a grande scala 1:2.000 - Comacchio - Edizione 1978</t>
+  </si>
+  <si>
+    <t>Cartografia topografica locale a grande scala 1:2.000 - S. Giovanni in Persiceto - Edizione 1979</t>
+  </si>
+  <si>
+    <t>Carta Tecnica Regionale 1:10.000 - Edizione aggiornata</t>
+  </si>
+  <si>
+    <t>Carta Tecnica Regionale 1:10.000 - Prima edizione</t>
+  </si>
+  <si>
+    <t>Carta clivometrica 1:25.000 - Prima edizione</t>
+  </si>
+  <si>
+    <t>Carta del Rischio Geo-Ambientale 1:250.000 - Edizione 1994</t>
+  </si>
+  <si>
+    <t>Carta geologico-strutturale dell'Appennino Emiliano-Romagnolo 1:250.000 - Edizione 2002</t>
+  </si>
+  <si>
+    <t>Carta Litologica 1:25.000 - Edizione 1984</t>
+  </si>
+  <si>
+    <t>Carta Morfologica 1:200.000 - Edizione 1980</t>
+  </si>
+  <si>
+    <t>Carta Sismotettonica della Regione Emilia-Romagna 1:250.000 - Edizione 2004</t>
+  </si>
+  <si>
+    <t>Il Paesaggio Geologico dell'Emilia-Romagna - Edizione 2009</t>
+  </si>
+  <si>
+    <t>Le Pietre di Bologna - Litologia di una città - Edizione 2005</t>
+  </si>
+  <si>
+    <t>Schema direttore della pericolosità geo-ambientale - Edizione 2002</t>
+  </si>
+  <si>
+    <t>Cartografia dei suoli</t>
+  </si>
+  <si>
+    <t>2.1.11.1</t>
+  </si>
+  <si>
+    <t>Cartografia geologica di base</t>
+  </si>
+  <si>
+    <t>Dissesto idrogeologico</t>
+  </si>
+  <si>
+    <t>Bologna sotto Bologna - Carta Geoarcheologica</t>
+  </si>
+  <si>
+    <t>2.1.11.2</t>
+  </si>
+  <si>
+    <t>2.1.11.3</t>
+  </si>
+  <si>
+    <t>è del 2.1.11</t>
+  </si>
+  <si>
+    <t>Carta della Capacità d'Uso dei Suoli 1:200.000 - Prima edizione</t>
+  </si>
+  <si>
+    <t>Carta di base del paesaggio archeologico 1:25.000 - Edizione 1989</t>
+  </si>
+  <si>
+    <t>Usi del suolo</t>
+  </si>
+  <si>
+    <t>2.1.14.1</t>
+  </si>
+  <si>
+    <t>Carta dell'Uso del Suolo 1:25.000 - edizione 1976</t>
+  </si>
+  <si>
+    <t>Carta dell'Uso del Suolo 1:25.000 - edizione 1994</t>
+  </si>
+  <si>
+    <t>Carta dell'uso del suolo 1:250.000 - edizione 2007</t>
+  </si>
+  <si>
+    <t>Carta dell'uso del suolo storico 1:100.000 - Edizione 2007</t>
+  </si>
+  <si>
+    <t>Carta dell'uso del suolo 2003 1:25.000 - tavola 201 SE Modena - Edizione 2005</t>
+  </si>
+  <si>
+    <t>Carta dell'Uso Reale del Suolo 1:200.000 - edizione 1976</t>
+  </si>
+  <si>
+    <t>Carta della Destinazione del Suolo 1:25.000 - prima edizione</t>
+  </si>
+  <si>
+    <t>Piani Topografici di Censimento - Edizione 1971</t>
+  </si>
+  <si>
+    <t>Piani Topografici di Censimento - Edizione 1981</t>
+  </si>
+  <si>
+    <t>Immagini aerofotografiche</t>
+  </si>
+  <si>
+    <t>Immagini satellitari </t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>2.2.2</t>
+  </si>
+  <si>
+    <t>Riprese Aerofotografiche 1969-1973 - Riprese 1969-1973</t>
+  </si>
+  <si>
+    <t>Riprese Aerofotografiche 1976-1978 - Riprese 1976-1978</t>
+  </si>
+  <si>
+    <t>Riprese Aerofotografiche 1979-1981 - Riprese 1979-1981</t>
+  </si>
+  <si>
+    <t>Riprese Aerofotografiche 1985-1986 - Riprese 1985-1986</t>
+  </si>
+  <si>
+    <t>Riprese Aerofotografiche 1987-1988 - Riprese 1987-1988</t>
+  </si>
+  <si>
+    <t>Riprese Aerofotografiche 1991 e 1993 - Riprese 1991 e 1993</t>
+  </si>
+  <si>
+    <t>Riprese Aerofotografiche 1994 (Volo Italia) - Riprese 1994</t>
+  </si>
+  <si>
+    <t>Riprese Aerofotografiche 1979 - Bologna</t>
+  </si>
+  <si>
+    <t>Riprese Aerofotografiche 1979 - Piacenza</t>
+  </si>
+  <si>
+    <t>Riprese Aerofotografiche 1979 - Forlì</t>
+  </si>
+  <si>
+    <t>Riprese Aerofotografiche 1981 - Rimini</t>
+  </si>
+  <si>
+    <t>Riprese Aerofotografiche 1987 - Riprese 1987</t>
+  </si>
+  <si>
+    <t>Riprese Aerofotografiche 1988 - Riprese 1988</t>
+  </si>
+  <si>
+    <t>Riprese Aerofotografiche Volo Italia 1988-1989 - Riprese 1988-1989</t>
+  </si>
+  <si>
+    <t>Riprese Aerofotografiche Volo CTR 1/90 - Riprese 1991</t>
+  </si>
+  <si>
+    <t>Riprese Aerofotografiche Volo Costa Adriatica - Riprese 1992 -1993</t>
+  </si>
+  <si>
+    <t>Riprese Aerofotografiche Volo 2/91 - Riprese 1993</t>
+  </si>
+  <si>
+    <t>Riprese Aerofotografiche Volo 1/92 - Riprese 1993</t>
+  </si>
+  <si>
+    <t>Riprese Aerofotografiche Volo 2/92 - Riprese 1993</t>
+  </si>
+  <si>
+    <t>Riprese Aerofotografiche Volo 93_08 - Riprese 1993</t>
+  </si>
+  <si>
+    <t>Riprese Aerofotografiche Volo 93_25 - Riprese 1993</t>
+  </si>
+  <si>
+    <t>Riprese Aerofotografiche Volo Italia 94 - Riprese 1994</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>2.3.2</t>
+  </si>
+  <si>
+    <t>2.3.3</t>
+  </si>
+  <si>
+    <t>2.3.4</t>
+  </si>
+  <si>
+    <t>Agricoltura e alimentazione</t>
+  </si>
+  <si>
+    <t>Ambiente e natura</t>
+  </si>
+  <si>
+    <t>Cartografia e territorio</t>
+  </si>
+  <si>
+    <t>Educazione ambientale</t>
+  </si>
+  <si>
+    <t>2.3.1.1</t>
+  </si>
+  <si>
+    <t>2.3.1.2</t>
+  </si>
+  <si>
+    <t>2.3.1.3</t>
+  </si>
+  <si>
+    <t>2.3.1.4</t>
+  </si>
+  <si>
+    <t>2.3.1.5</t>
+  </si>
+  <si>
+    <t>2.3.1.6</t>
+  </si>
+  <si>
+    <t>2.3.1.7</t>
+  </si>
+  <si>
+    <t>Collana studi e ricerche</t>
+  </si>
+  <si>
+    <t>Pubblicazioni varie</t>
+  </si>
+  <si>
+    <t>Collana quaderni di alimentazione </t>
+  </si>
+  <si>
+    <t>Ricettari e pubblicazioni per l'orientamento ai consumi alimentari </t>
+  </si>
+  <si>
+    <t>Pubblicazioni per le scuole</t>
+  </si>
+  <si>
+    <t>Audiovisivi (cassette vhs)</t>
+  </si>
+  <si>
+    <t>Manifesti</t>
+  </si>
+  <si>
+    <t>Valutazione della tossicità per l'uomo degli antiparassitari ad uso agricolo - Il contributo della Regione Emilia-Romagna (II edizione)</t>
+  </si>
+  <si>
+    <t>Impatto dell'uso agricolo del suolo sul dissesto idrogeologico - Area pilota collina Cesenate</t>
+  </si>
+  <si>
+    <t>La contaminazione dei vini da residui di fitofarmaci</t>
+  </si>
+  <si>
+    <t>Gli animali domestici nella tradizione emiliano-romagnola - (bestiario popolare)</t>
+  </si>
+  <si>
+    <t>Pesca e nettarina - Marketing e strategie commerciali</t>
+  </si>
+  <si>
+    <t>Ricerca di mercato in Germania e Francia per la promozione delle piante ornamentali da esterno prodotte in Emilia-Romagna</t>
+  </si>
+  <si>
+    <t>Olivo e olio. - Il sapore mediterraneo in cucina (II edizione)</t>
+  </si>
+  <si>
+    <t>Dal fornello al computer - 100 ricette emiliane e romagnole (II ed. riveduta e ampliata)</t>
+  </si>
+  <si>
+    <t>Frutta e verdura - Salute e bellezza a tavola</t>
+  </si>
+  <si>
+    <t>Quaderni d'informazione alimentare</t>
+  </si>
+  <si>
+    <t>Sapori e valori dell'Emilia-Romagna</t>
+  </si>
+  <si>
+    <t>A spasso con Pilin - Piccole avventure alla scoperta di un'agricoltura rispettosa dell'ambiente (II edizione)</t>
+  </si>
+  <si>
+    <t>I viaggi di Sofia - Alla scoperta di come si producono miele, latte, marmellate</t>
+  </si>
+  <si>
+    <t>La divulgazione agricola</t>
+  </si>
+  <si>
+    <t>Progetto lotta integrata</t>
+  </si>
+  <si>
+    <t>Il servizio di assistenza tecnica agli allevamenti</t>
+  </si>
+  <si>
+    <t>I servizi di sviluppo agricolo</t>
+  </si>
+  <si>
+    <t>Il rilevamento dei suoli nelle aziende</t>
+  </si>
+  <si>
+    <t>L'assistenza tecnica all'impresa</t>
+  </si>
+  <si>
+    <t>I disciplinari di produzione integrata</t>
+  </si>
+  <si>
+    <t>Controllo delle infestanti</t>
+  </si>
+  <si>
+    <t>Effluenti di allevamento:gestione e utilizzo</t>
+  </si>
+  <si>
+    <t>Il Servizio fitosanitario dell'Emilia-Romagna</t>
+  </si>
+  <si>
+    <t>Qualità in agricoltura</t>
+  </si>
+  <si>
+    <t>Qualità controllata in zootecnia</t>
+  </si>
+  <si>
+    <t>Essere agriturismo</t>
+  </si>
+  <si>
+    <t>Sharka</t>
+  </si>
+  <si>
+    <t>La pioppicoltura</t>
+  </si>
+  <si>
+    <t>Autunno - manifesto formato 70 x 100</t>
+  </si>
+  <si>
+    <t>Estate - manifesto formato 70 x 100</t>
+  </si>
+  <si>
+    <t>Inverno - manifesto formato 70 x 100</t>
+  </si>
+  <si>
+    <t>Primavera - manifesto formato 70 x 100</t>
+  </si>
+  <si>
+    <t>Collana naturalistica </t>
+  </si>
+  <si>
+    <t>Collana aree protette della Regione Emilia-Romagna</t>
+  </si>
+  <si>
+    <t>Altri titoli </t>
+  </si>
+  <si>
+    <t>Poster</t>
+  </si>
+  <si>
+    <t>Alta Via dei Parchi </t>
+  </si>
+  <si>
+    <t>Riviste</t>
+  </si>
+  <si>
+    <t>Fauna Minore</t>
+  </si>
+  <si>
+    <t>Ciclovie dei Parchi</t>
+  </si>
+  <si>
+    <t>2.3.2.1</t>
+  </si>
+  <si>
+    <t>2.3.2.2</t>
+  </si>
+  <si>
+    <t>2.3.2.3</t>
+  </si>
+  <si>
+    <t>2.3.2.4</t>
+  </si>
+  <si>
+    <t>2.3.2.5</t>
+  </si>
+  <si>
+    <t>2.3.2.6</t>
+  </si>
+  <si>
+    <t>2.3.2.7</t>
+  </si>
+  <si>
+    <t>2.3.2.8</t>
+  </si>
+  <si>
+    <t>Aspetti naturalistici delle zone umide salmastre dell'Emilia-Romagna</t>
+  </si>
+  <si>
+    <t>Flora spontanea protetta, prodotti del sottobosco e funghi</t>
+  </si>
+  <si>
+    <t>Flora e vegetazione dell'Emilia-Romagna</t>
+  </si>
+  <si>
+    <t>La foresta Panfilia o Bosco di S.Agostino</t>
+  </si>
+  <si>
+    <t>Aspetti naturalistici di alcune zone umide di acqua dolce della bassa Pianura Padana</t>
+  </si>
+  <si>
+    <t>Il Monte Nero</t>
+  </si>
+  <si>
+    <t>Le salse dell'Emilia-Romagna</t>
+  </si>
+  <si>
+    <t>I boschi dell'Emilia-Romagna</t>
+  </si>
+  <si>
+    <t>Le foreste di Campigna-Lama nell'Appennino tosco-romagnolo</t>
+  </si>
+  <si>
+    <t>La Valle del Marecchia</t>
+  </si>
+  <si>
+    <t>Oltre il limite degli alberi</t>
+  </si>
+  <si>
+    <t>Le ofioliti dell'Appennino emiliano</t>
+  </si>
+  <si>
+    <t>La vena del Gesso</t>
+  </si>
+  <si>
+    <t>I funghi dell'Emilia-Romagna</t>
+  </si>
+  <si>
+    <t>Geositi: testimoni del tempo - Fondamenti per la conservazione del patrimonio geologico</t>
+  </si>
+  <si>
+    <t>Parco Regionale Alto Appennino Reggiano (Parco del Gigante)</t>
+  </si>
+  <si>
+    <t>Parchi e Riserve dell'Emilia Romagna - 26 cartine con informazioni naturalistiche e storiche, punti di interesse, notizie e itinerari consigliati</t>
+  </si>
+  <si>
+    <t>Parco Regionale Fluviale del Taro</t>
+  </si>
+  <si>
+    <t>Riserva naturale di Alfonsine</t>
+  </si>
+  <si>
+    <t>Parco Regionale Corno alle Scale</t>
+  </si>
+  <si>
+    <t>Parco Regionale Sassi di Roccamalatina</t>
+  </si>
+  <si>
+    <t>Parco Regionale Fluviale dello Stirone</t>
+  </si>
+  <si>
+    <t>Riserva Naturale Orientata di Onferno</t>
+  </si>
+  <si>
+    <t>Parco Regionale dell'Alto Appennino Modenese</t>
+  </si>
+  <si>
+    <t>Riserva naturale orientata Cassa di espansione del fiume Secchia</t>
+  </si>
+  <si>
+    <t>Parco regionale Gessi Bolognesi e Calanchi dell'Abbadessa</t>
+  </si>
+  <si>
+    <t>Riserva naturale orientata Bosco di Scardavilla</t>
+  </si>
+  <si>
+    <t>Parco Storico Regionale Monte Sole</t>
+  </si>
+  <si>
+    <t>Riserva naturale orientata Bosco della Frattona</t>
+  </si>
+  <si>
+    <t>Parco regionale della Vena del Gesso Romagnola</t>
+  </si>
+  <si>
+    <t>Alberi e arbusti dell'Emilia-Romagna</t>
+  </si>
+  <si>
+    <t>Case di pietra - il recupero del patrimonio edilizio nel demanio forestale</t>
+  </si>
+  <si>
+    <t>Guida alle piante legnose dell'Emilia-Romagna</t>
+  </si>
+  <si>
+    <t>Parco regionale dell'Alto Appennino Modenese - l'ambiente vegetale</t>
+  </si>
+  <si>
+    <t>Atlante della Flora protetta della Regione Emilia-Romagna</t>
+  </si>
+  <si>
+    <t>Atlante delle Pteridofite nella Regione Emilia-Romagna - Riconoscimento, distribuzione e note sull'ecologia delle Felci e piante affini in Emilia-Romagna</t>
+  </si>
+  <si>
+    <t>Atlante dei Macromiceti della Regione Emilia-Romagna - Valutazioni della biodiversità micologica nel territorio regionale, nelle singole provincie, nelle aree protette e in boschi di particolare interesse ambientale</t>
+  </si>
+  <si>
+    <t>La flora di altitudine dell'Appennino tosco-emiliano</t>
+  </si>
+  <si>
+    <t>Le aree di riequilibrio ecologico - una peculiarità della Regione Emilia Romagna</t>
+  </si>
+  <si>
+    <t>Lista rossa degli uccelli nidificanti in Emilia-Romagna - Indicazioni per la conservazione dell'avifauna regionale</t>
+  </si>
+  <si>
+    <t> Rete Natura 2000 in Emilia-Romagna - Manuale per conoscere e conservare la biodiversità</t>
+  </si>
+  <si>
+    <t>Fauna Minore - Tutela e conservazione in Emilia-Romagna</t>
+  </si>
+  <si>
+    <t>Funghi - Poster colore, formato cm 70 x 100.</t>
+  </si>
+  <si>
+    <t>Flora Spontanea Protetta (Tav. II) - Poster colore, formato cm 70 x 100.</t>
+  </si>
+  <si>
+    <t>Mammiferi - Fauna minore dell'Emilia-Romagna - Poster colore</t>
+  </si>
+  <si>
+    <t>Pesci - Fauna minore dell'Emilia-Romagna - Poster colore</t>
+  </si>
+  <si>
+    <t>Pipistrelli - Fauna minore dell'Emilia-Romagna - Poster colore</t>
+  </si>
+  <si>
+    <t>Alta Via dei Parchi</t>
+  </si>
+  <si>
+    <t>Il taccuino dell'escursionista - Moleskine</t>
+  </si>
+  <si>
+    <t>Alta Via dei Parchi carta nr. 2 - ALTO APPENNINO REGGIANO - Parco nazionale Appennino Tosco-Emiliano</t>
+  </si>
+  <si>
+    <t>Meridiani Montagne</t>
+  </si>
+  <si>
+    <t>Storie Naturali n.6/2011</t>
+  </si>
+  <si>
+    <t>Storie Naturali n.7/2013</t>
+  </si>
+  <si>
+    <t>Storie Naturali n.9/2015</t>
+  </si>
+  <si>
+    <t>Anfibi - Fauna minore dell'Emilia-Romagna - Poster colore</t>
+  </si>
+  <si>
+    <t>Coleotteri - Fauna minore dell'Emilia-Romagna - Poster colore</t>
+  </si>
+  <si>
+    <t>Farfalle - Fauna minore dell'Emilia-Romagna - Poster colore</t>
+  </si>
+  <si>
+    <t>Rettili - Fauna minore dell'Emilia-Romagna - Poster colore</t>
+  </si>
+  <si>
+    <t>Urbanistica</t>
+  </si>
+  <si>
+    <t>Archeologia</t>
+  </si>
+  <si>
+    <t>Geologia </t>
+  </si>
+  <si>
+    <t>Pedologia</t>
+  </si>
+  <si>
+    <t>Topografia </t>
+  </si>
+  <si>
+    <t>Escursionismo e turismo</t>
+  </si>
+  <si>
+    <t>2.3.3.1</t>
+  </si>
+  <si>
+    <t>2.3.3.2</t>
+  </si>
+  <si>
+    <t>2.3.3.3</t>
+  </si>
+  <si>
+    <t>2.3.3.4</t>
+  </si>
+  <si>
+    <t>2.3.3.5</t>
+  </si>
+  <si>
+    <t>2.3.3.6</t>
+  </si>
+  <si>
+    <t>Piano Territoriale Paesistico Regionale</t>
+  </si>
+  <si>
+    <t>Decisione delle osservazioni presentate al piano territoriale paesistico regionale - Bollettino Ufficiale Regione Emilia Romagna n.75 del 08/09/1993</t>
+  </si>
+  <si>
+    <t>La città di domani: strategie, programmi, progetti di riqualificazione urbana. Forum 2000 - Atti del convegno internazionale Bologna, 24-25 gennaio 2000</t>
+  </si>
+  <si>
+    <t>Paesaggio archeologico regionale - Primi elementi per il rilievo in Emilia-Romagna</t>
+  </si>
+  <si>
+    <t>Elementi archeologici in Emilia-Romagna - Vincoli relativi alla legge 1089 del 1 giugno 1939</t>
+  </si>
+  <si>
+    <t>Progetto Cartografia Geologica - Atti del Seminario Bologna, 22-23 febbraio 1985</t>
+  </si>
+  <si>
+    <t>Geologia delle grandi aree urbane - Progetto strategico CNR - Atti del convegno - Bologna, 4/5 Novembre 1997</t>
+  </si>
+  <si>
+    <t>I numeri sulle frane</t>
+  </si>
+  <si>
+    <t>Le Pianure: conoscenza e salvaguardia. Il contributo delle scienze della terra - Atti del convegno - Ferrara 8119 Novembre 1999</t>
+  </si>
+  <si>
+    <t>Riserve idriche sotterranee della regione Emilia-Romagna - cofanetto contenente la relazione e 9 allegati cartografici</t>
+  </si>
+  <si>
+    <t>Note illustrative della Carta del dissesto geologico attuale, Foglio 218 SE - Carpineti in scala 1:25.000</t>
+  </si>
+  <si>
+    <t>Manuale Cromatico di riferimento per la stampa delle Carte Geologiche - Carta Geologica d'Italia Progetto CARG</t>
+  </si>
+  <si>
+    <t>Raccontare la Terra - 14 itinerari geologici in Emilia-Romagna</t>
+  </si>
+  <si>
+    <t>I Dinosauri italiani e altri vertebrati fossili del nostro paese - Guida fotografica alla mostraMuseo Geologico Giovanni Capellini, Bologna5 settembre 2009 - 11 gennaio 2010</t>
+  </si>
+  <si>
+    <t>Museo Geologico Giovanni Capellini - Guida Breve per Immagini - Short Picture Guide</t>
+  </si>
+  <si>
+    <t>1ST European Congress On Regional Geological Cartography And Information Systems - Bologna June 13-16, 1994 - Proceedings, Volume I</t>
+  </si>
+  <si>
+    <t>Speleologia e geositi carsici in Emilia-Romagna</t>
+  </si>
+  <si>
+    <t>La pianura - Geologia, suoli e ambienti in Emilia-Romagna</t>
+  </si>
+  <si>
+    <t>Il sistema mare-costa dell'Emilia-Romagna</t>
+  </si>
+  <si>
+    <t>Acque dalle rocce, una ricchezza della montagna</t>
+  </si>
+  <si>
+    <t>I suoli dell'Emilia-Romagna - Note illustrative e carta alla scala 1:250.000</t>
+  </si>
+  <si>
+    <t>Cartografia tematica per la valutazione del territorio del comprensorio della bassa pianura Modenese</t>
+  </si>
+  <si>
+    <t>Cartografia tematica per la valutazione del territorio - Comprensorio "Monte Cavallo-Corno alle Scale"</t>
+  </si>
+  <si>
+    <t>I suoli della Pianura Modenese</t>
+  </si>
+  <si>
+    <t>I suoli della collina cesenate</t>
+  </si>
+  <si>
+    <t>I suoli della bassa pianura ravennate</t>
+  </si>
+  <si>
+    <t>Carta Pedologica provincia di Ferrara - prima raccolta ed analisi dei dati chimici e fisici dei suoli della provincia di Ferrara</t>
+  </si>
+  <si>
+    <t>Carta Pedologica provincia di Forlì - prima raccolta ed analisi dei dati chimici e fisici dei suoli della provincia di Forlì</t>
+  </si>
+  <si>
+    <t>Carta Pedologica provincia di Bologna - prima raccolta ed analisi dei dati chimici e fisici dei suoli della provincia di Bologna</t>
+  </si>
+  <si>
+    <t>Carta Pedologica provincia di Modena - prima raccolta ed analisi dei dati chimici e fisici dei suoli della provincia di Modena</t>
+  </si>
+  <si>
+    <t>Carta Pedologica provincia di Ravenna - prima raccolta ed analisi dei dati chimici e fisici dei suoli della provincia di Ravenna</t>
+  </si>
+  <si>
+    <t>Carta Pedologica provincia di Parma - prima raccolta ed analisi dei dati chimici e fisici dei suoli della provincia di Parma</t>
+  </si>
+  <si>
+    <t>Carta Pedologica provincia di Piacenza - prima raccolta ed analisi dei dati chimici e fisici dei suoli della provincia di Piacenza</t>
+  </si>
+  <si>
+    <t>Capacità d'uso dei suoli della Regione Emilia-Romagna - Con carta della capacità d'uso dei suoli alla scala 1:200.000</t>
+  </si>
+  <si>
+    <t>Carta Tecnica Regionale alla scala 1:5.000 - Formazione della C.T.R. - Capitolato Speciale d'Appalto - Norme per il disegno e segni convenzionali -</t>
+  </si>
+  <si>
+    <t>Carta Tecnica Regionale alla scala 1:5.000 - Contenuto, norme per il disegno e segni convenzionali</t>
+  </si>
+  <si>
+    <t>Carta Tecnica Regionale - Determinazioni topografiche nella formazione della Carta Tecnica Regionale - Raffittimento di reti geodetiche; punti fotografici d'appoggio; punti stabili di riferimento</t>
+  </si>
+  <si>
+    <t>Carta Tecnica Regionale - Norme per l'esecuzione di poligonali geodimetriche sostitutive delle reti di raffittimento</t>
+  </si>
+  <si>
+    <t>Carta Tecnica Regionale - Norme per la localizzazione dei punti d'appoggio dei blocchi per la compensazione con il programma di Ackermann</t>
+  </si>
+  <si>
+    <t>Carte Generali a grande scala 1:1.000 - Contenuto - norme per il disegno - segni convenzionali</t>
+  </si>
+  <si>
+    <t>Carte Generali a grande scala 1:2.000 - Contenuto - norme per il disegno - segni convenzionali</t>
+  </si>
+  <si>
+    <t>Carte Generali a grande scala 1:1.000 E 1:2.000 - Capitolato speciale d'appalto - Contenuto - norme per il disegno - segni convenzionali</t>
+  </si>
+  <si>
+    <t>Carta Tecnica Regionale - Istruzioni per l'uso dei modelli di calcolo, segni convenzionali, grafici</t>
+  </si>
+  <si>
+    <t>Cartografia numerica a scala 1:500 - Capitolato speciale d'appalto; prescrizioni tecniche; repertorio degli elementi e delle entità; contenuti e codici - bozza</t>
+  </si>
+  <si>
+    <t>Cartografia Fotogrammetrica numerica a scala 1:1.000 - Capitolato speciale d'appalto; repertorio degli elementi e delle entità - bozza</t>
+  </si>
+  <si>
+    <t>Cartografia Fotogrammetrica numerica a scala 1:2.000 - Capitolato speciale d'appalto; repertorio degli elementi e delle entità - bozza</t>
+  </si>
+  <si>
+    <t>La cartografia tematica nella pianificazione territoriale - Atti della Tavola Rotonda, Palazzo Pepoli - Bologna, 30 settembre 1976</t>
+  </si>
+  <si>
+    <t>Carta fotogrammetrica numerica alla scala 1:5.000 - Capitolato speciale d'appalto; prescrizioni tecniche per l'esecuzione e il collaudo; repertorio degli elementi e delle entità</t>
+  </si>
+  <si>
+    <t>Le vie del Duca - Recupero dell'antica viabilità nella pedemontana modenese ovest</t>
+  </si>
+  <si>
+    <t>In viaggio lungo il Reno</t>
+  </si>
+  <si>
+    <t>fa parte di 2.3.3</t>
+  </si>
+  <si>
+    <t>Carta del corso del Fiume Po </t>
+  </si>
+  <si>
+    <t>L'educazione ambientale in poche parole - Breve itinerario tra le parole chiave di una attività complessa e affascinante</t>
+  </si>
+  <si>
+    <t>L'Europa sostenibile ha bisogno di educazione</t>
+  </si>
+  <si>
+    <t>Una nuova frontiera di libertà - Culture e politiche per un futuro sostenibile</t>
+  </si>
+  <si>
+    <t>Nuovi educatori ambientali / 2 - Esperienze seminariali nel Master in Educazione Ambientale</t>
+  </si>
+  <si>
+    <t>Nuovi educatori ambientali / 1 - Il concorso dei saperi al Master in Educazione Ambientale</t>
+  </si>
+  <si>
+    <t>Una rete di scuole per lo sviluppo sostenibile</t>
+  </si>
+  <si>
+    <t>Dal piano di azione ambientale alla proposta educativa</t>
+  </si>
+  <si>
+    <t>Tematismi numerici tratti dalla carta tecnica regionale 1:10.000 - Edizione 1991</t>
+  </si>
+  <si>
+    <t>Carta Escursionistica della Regione Emilia-Romagna 1:5.000 - coperture vettoriali - Edizione 2008</t>
+  </si>
+  <si>
+    <t>Carta escursionistica della Regione Emilia-Romagna 1:50.000 - immagini raster - Edizione 2007</t>
+  </si>
+  <si>
+    <t>Carta geologica dell'Appennino emiliano-romagnolo 1:10.000 (immagini raster) - Edizione 2002</t>
+  </si>
+  <si>
+    <t>Carta storica regionale - Uso del suolo storico - Edizione 2007</t>
+  </si>
+  <si>
+    <t>Carte della vegetazione e della naturalità dei Parchi regionali e di altre zone. Coperture vettoriali 1:10.000 / 1:25.000 - Edizione 2004</t>
+  </si>
+  <si>
+    <t>Carta degli habitat dei SIC e delle ZPS dell'Emilia-Romagna - Edizione 2007</t>
+  </si>
+  <si>
+    <t>1976 - Coperture vettoriali dell'uso del suolo - Edizione 2011 (DVD)</t>
+  </si>
+  <si>
+    <t>1994 - Coperture vettoriali dell'uso del suolo - Edizione 2015 (DVD)</t>
+  </si>
+  <si>
+    <t>2003 - Coperture vettoriali dell'uso del suolo - Edizione 2011 (DVD)</t>
+  </si>
+  <si>
+    <t>2008 - Coperture vettoriali dell'uso del suolo - Edizione 2011 (DVD)</t>
+  </si>
+  <si>
+    <t>Database della vegetazione dei Parchi regionali - Gessi Bolognesi e Calanchi dell'Abbadessa, Laghi di Suviana e Brasimone, Abbazia di Monteveglio, Monte Sole</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1660,6 +2884,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1690,7 +2923,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1702,6 +2935,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2704,6 +3940,545 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>466</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>466</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1045" name="Forme 21" descr="Aggiungi a Google Calendar">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94EF6865-26E5-419E-96F6-A600AD6B7527}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="885825" y="106870500"/>
+          <a:ext cx="180975" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>479</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>479</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1046" name="Forme 22" descr="Aggiungi a Google Calendar">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{466B65C6-7E11-46CF-AD0D-D12C94F6A56E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="885825" y="109347000"/>
+          <a:ext cx="180975" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>569</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>569</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1047" name="Forme 23" descr="Aggiungi a Google Calendar">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BA94865-4B83-475A-8B1F-F23F4AE3D015}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="885825" y="118491000"/>
+          <a:ext cx="180975" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>521</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>521</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1048" name="Forme 24" descr="Aggiungi a Google Calendar">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0BA26B-B714-403A-96FA-FC6965F58332}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="885825" y="118110000"/>
+          <a:ext cx="180975" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>551</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>551</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1049" name="Forme 25" descr="Aggiungi a Google Calendar">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A64D78-97DC-4BED-A83C-D54C4A7D6C63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="885825" y="128397000"/>
+          <a:ext cx="180975" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>604</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>604</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1050" name="Forme 26" descr="Aggiungi a Google Calendar">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{869260A9-3262-4FF8-BBCC-F8D73B585479}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="885825" y="142875000"/>
+          <a:ext cx="180975" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>612</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>612</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1051" name="Forme 27" descr="Aggiungi a Google Calendar">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A90CB8E-D75D-4899-8E9B-F1C5932D7C1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="885825" y="144399000"/>
+          <a:ext cx="180975" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>613</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>613</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1052" name="Forme 28" descr="Aggiungi a Google Calendar">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B68AB6B0-E497-4F90-8010-16EE00E7A403}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="885825" y="144589500"/>
+          <a:ext cx="180975" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>648</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>648</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1053" name="Forme 29" descr="Aggiungi a Google Calendar">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A97AB3AD-66FD-4A08-A94F-75DD9E40060C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="885825" y="151447500"/>
+          <a:ext cx="180975" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>689</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>689</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1054" name="Forme 30" descr="Aggiungi a Google Calendar">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65B772F3-3E65-497E-AF1B-CC4ED5224AAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="885825" y="160591500"/>
+          <a:ext cx="180975" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>826</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>826</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1055" name="Forme 31" descr="Aggiungi a Google Calendar">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81157776-2402-4C4D-AD40-F14BF4682961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="885825" y="198501000"/>
+          <a:ext cx="180975" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3004,16 +4779,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D469"/>
+  <dimension ref="A1:D856"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="A455" sqref="A455"/>
+    <sheetView tabSelected="1" topLeftCell="A721" workbookViewId="0">
+      <selection activeCell="B859" sqref="B859"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="93" customWidth="1"/>
+    <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -6729,7 +8504,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>92</v>
       </c>
@@ -6737,7 +8512,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>92</v>
       </c>
@@ -6745,7 +8520,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>92</v>
       </c>
@@ -6753,7 +8528,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>92</v>
       </c>
@@ -6761,7 +8536,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>92</v>
       </c>
@@ -6769,7 +8544,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>92</v>
       </c>
@@ -6777,7 +8552,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>92</v>
       </c>
@@ -6785,7 +8560,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>522</v>
       </c>
@@ -6793,7 +8568,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>523</v>
       </c>
@@ -6801,160 +8576,3277 @@
         <v>515</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
+        <v>537</v>
+      </c>
+      <c r="B458" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C458" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>92</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>92</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>92</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
         <v>524</v>
       </c>
-      <c r="B458" s="5" t="s">
+      <c r="B462" s="5" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
         <v>525</v>
       </c>
-      <c r="B459" s="5" t="s">
+      <c r="B463" s="5" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
-        <v>44</v>
-      </c>
-      <c r="B460" t="s">
-        <v>22</v>
-      </c>
-      <c r="C460">
-        <v>2</v>
-      </c>
-      <c r="D460">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A461" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B461" t="s">
-        <v>23</v>
-      </c>
-      <c r="C461">
-        <v>2</v>
-      </c>
-      <c r="D461">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
-        <v>46</v>
-      </c>
-      <c r="B462" t="s">
-        <v>24</v>
-      </c>
-      <c r="C462">
-        <v>2</v>
-      </c>
-      <c r="D462">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
-        <v>47</v>
-      </c>
-      <c r="B463" t="s">
-        <v>25</v>
-      </c>
-      <c r="C463">
-        <v>2</v>
-      </c>
-      <c r="D463">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A464" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B464" t="s">
-        <v>26</v>
-      </c>
-      <c r="C464">
-        <v>2</v>
-      </c>
-      <c r="D464">
-        <v>1</v>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>92</v>
+      </c>
+      <c r="B464" s="7" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>49</v>
-      </c>
-      <c r="B465" t="s">
-        <v>27</v>
-      </c>
-      <c r="C465">
-        <v>2</v>
-      </c>
-      <c r="D465">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="B465" s="7" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>53</v>
-      </c>
-      <c r="B466" t="s">
-        <v>28</v>
-      </c>
-      <c r="C466">
-        <v>2</v>
-      </c>
-      <c r="D466">
-        <v>2</v>
+        <v>92</v>
+      </c>
+      <c r="B466" s="7" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>54</v>
-      </c>
-      <c r="B467" t="s">
-        <v>29</v>
-      </c>
-      <c r="C467">
-        <v>2</v>
-      </c>
-      <c r="D467">
-        <v>2</v>
+        <v>92</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>55</v>
-      </c>
-      <c r="B468" t="s">
-        <v>30</v>
-      </c>
-      <c r="C468">
-        <v>2</v>
-      </c>
-      <c r="D468">
-        <v>2</v>
+        <v>92</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
+        <v>92</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>92</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C470" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>92</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C471" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>92</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>92</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>92</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C474" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>44</v>
+      </c>
+      <c r="B475" t="s">
+        <v>22</v>
+      </c>
+      <c r="C475">
+        <v>2</v>
+      </c>
+      <c r="D475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B476" t="s">
+        <v>23</v>
+      </c>
+      <c r="C476">
+        <v>2</v>
+      </c>
+      <c r="D476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B477" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B478" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>46</v>
+      </c>
+      <c r="B479" t="s">
+        <v>24</v>
+      </c>
+      <c r="C479">
+        <v>2</v>
+      </c>
+      <c r="D479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B480" s="5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B481" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B482" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>47</v>
+      </c>
+      <c r="B483" t="s">
+        <v>25</v>
+      </c>
+      <c r="C483">
+        <v>2</v>
+      </c>
+      <c r="D483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>562</v>
+      </c>
+      <c r="B484" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>80</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>80</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>80</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>563</v>
+      </c>
+      <c r="B488" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C488" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>564</v>
+      </c>
+      <c r="B489" s="5" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>92</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>92</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>565</v>
+      </c>
+      <c r="B492" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C492" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B493" t="s">
+        <v>26</v>
+      </c>
+      <c r="C493">
+        <v>2</v>
+      </c>
+      <c r="D493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B494" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C494" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B495" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C495" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B496" s="5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>80</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>80</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>80</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>80</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>80</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>80</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>80</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>92</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>92</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>49</v>
+      </c>
+      <c r="B506" t="s">
+        <v>27</v>
+      </c>
+      <c r="C506">
+        <v>2</v>
+      </c>
+      <c r="D506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>92</v>
+      </c>
+      <c r="B507" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>53</v>
+      </c>
+      <c r="B508" t="s">
+        <v>28</v>
+      </c>
+      <c r="C508">
+        <v>2</v>
+      </c>
+      <c r="D508">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>581</v>
+      </c>
+      <c r="B509" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C509" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>582</v>
+      </c>
+      <c r="B510" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C510" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>583</v>
+      </c>
+      <c r="B511" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C511" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>584</v>
+      </c>
+      <c r="B512" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C512" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>585</v>
+      </c>
+      <c r="B513" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>601</v>
+      </c>
+      <c r="B514" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>601</v>
+      </c>
+      <c r="B515" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>601</v>
+      </c>
+      <c r="B516" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>601</v>
+      </c>
+      <c r="B517" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>601</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>606</v>
+      </c>
+      <c r="B519" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B520" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B521" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B522" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B523" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B524" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B525" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B526" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B527" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B528" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="529" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B529" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="530" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B530" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="531" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B531" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="532" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B532" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="533" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B533" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="534" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B534" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="535" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B535" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="536" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B536" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="537" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B537" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="538" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B538" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="539" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B539" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="540" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B540" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="541" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B541" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="542" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B542" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="543" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B543" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C543" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="544" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B544" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B545" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>608</v>
+      </c>
+      <c r="B546" s="5" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B547" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C547" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B548" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B549" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B550" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B551" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B552" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B553" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C553" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B554" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="C554" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B555" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C555" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B556" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C556" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B557" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="C557" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B558" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C558" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B559" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C559" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B560" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C560" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B561" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C561" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B562" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C562" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B563" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B564" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B565" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B566" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>601</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C567" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>601</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C568" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>601</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C569" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>601</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C570" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>586</v>
+      </c>
+      <c r="B571" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C571" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>587</v>
+      </c>
+      <c r="B572" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>601</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>601</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>601</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>601</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>601</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>601</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>601</v>
+      </c>
+      <c r="B579" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C579" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>601</v>
+      </c>
+      <c r="B580" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>601</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>601</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>601</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>601</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>601</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>601</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>601</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>601</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>601</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>601</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>601</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>588</v>
+      </c>
+      <c r="B592" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C592" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>589</v>
+      </c>
+      <c r="B593" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C593" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>590</v>
+      </c>
+      <c r="B594" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C594" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>591</v>
+      </c>
+      <c r="B595" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>601</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>601</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>601</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>601</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>601</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>601</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>601</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>601</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>601</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>687</v>
+      </c>
+      <c r="B605" s="5" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>691</v>
+      </c>
+      <c r="B606" s="5" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>692</v>
+      </c>
+      <c r="B607" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>601</v>
+      </c>
+      <c r="B608" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="C608" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>592</v>
+      </c>
+      <c r="B609" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C609" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>593</v>
+      </c>
+      <c r="B610" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C610" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>594</v>
+      </c>
+      <c r="B611" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>601</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>601</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>697</v>
+      </c>
+      <c r="B614" s="5" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>601</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>601</v>
+      </c>
+      <c r="B616" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>601</v>
+      </c>
+      <c r="B617" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>601</v>
+      </c>
+      <c r="B618" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>601</v>
+      </c>
+      <c r="B619" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>601</v>
+      </c>
+      <c r="B620" s="3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>601</v>
+      </c>
+      <c r="B621" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>595</v>
+      </c>
+      <c r="B622" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="C622" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>596</v>
+      </c>
+      <c r="B623" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C623" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>597</v>
+      </c>
+      <c r="B624" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>601</v>
+      </c>
+      <c r="B625" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>601</v>
+      </c>
+      <c r="B626" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>598</v>
+      </c>
+      <c r="B627" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C627" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>599</v>
+      </c>
+      <c r="B628" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C628" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>54</v>
+      </c>
+      <c r="B629" t="s">
+        <v>29</v>
+      </c>
+      <c r="C629">
+        <v>2</v>
+      </c>
+      <c r="D629">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>709</v>
+      </c>
+      <c r="B630" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>601</v>
+      </c>
+      <c r="B631" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>601</v>
+      </c>
+      <c r="B632" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>601</v>
+      </c>
+      <c r="B633" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C633" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>601</v>
+      </c>
+      <c r="B634" s="3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>601</v>
+      </c>
+      <c r="B635" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C635" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>601</v>
+      </c>
+      <c r="B636" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="C636" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>601</v>
+      </c>
+      <c r="B637" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C637" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>601</v>
+      </c>
+      <c r="B638" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>601</v>
+      </c>
+      <c r="B639" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>601</v>
+      </c>
+      <c r="B640" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>601</v>
+      </c>
+      <c r="B641" s="3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>601</v>
+      </c>
+      <c r="B642" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>601</v>
+      </c>
+      <c r="B643" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>601</v>
+      </c>
+      <c r="B644" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>601</v>
+      </c>
+      <c r="B645" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>601</v>
+      </c>
+      <c r="B646" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>601</v>
+      </c>
+      <c r="B647" s="3" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>601</v>
+      </c>
+      <c r="B648" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>601</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>601</v>
+      </c>
+      <c r="B650" s="3" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>601</v>
+      </c>
+      <c r="B651" s="3" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>601</v>
+      </c>
+      <c r="B652" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>710</v>
+      </c>
+      <c r="B653" s="5" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>55</v>
+      </c>
+      <c r="B654" t="s">
+        <v>30</v>
+      </c>
+      <c r="C654">
+        <v>2</v>
+      </c>
+      <c r="D654">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>733</v>
+      </c>
+      <c r="B655" s="5" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>741</v>
+      </c>
+      <c r="B656" s="5" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>601</v>
+      </c>
+      <c r="B657" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>601</v>
+      </c>
+      <c r="B658" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>601</v>
+      </c>
+      <c r="B659" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>742</v>
+      </c>
+      <c r="B660" s="5" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>601</v>
+      </c>
+      <c r="B661" s="3" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>601</v>
+      </c>
+      <c r="B662" s="3" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>601</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>743</v>
+      </c>
+      <c r="B664" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>601</v>
+      </c>
+      <c r="B665" s="3" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>744</v>
+      </c>
+      <c r="B666" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>601</v>
+      </c>
+      <c r="B667" s="3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>601</v>
+      </c>
+      <c r="B668" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="C668" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>601</v>
+      </c>
+      <c r="B669" s="3" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>601</v>
+      </c>
+      <c r="B670" s="3" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>745</v>
+      </c>
+      <c r="B671" s="5" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>601</v>
+      </c>
+      <c r="B672" s="3" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>601</v>
+      </c>
+      <c r="B673" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>746</v>
+      </c>
+      <c r="B674" s="5" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>601</v>
+      </c>
+      <c r="B675" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>601</v>
+      </c>
+      <c r="B676" s="3" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>601</v>
+      </c>
+      <c r="B677" s="3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>601</v>
+      </c>
+      <c r="B678" s="3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>601</v>
+      </c>
+      <c r="B679" s="3" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>601</v>
+      </c>
+      <c r="B680" s="3" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>601</v>
+      </c>
+      <c r="B681" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="C681" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>601</v>
+      </c>
+      <c r="B682" s="3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>601</v>
+      </c>
+      <c r="B683" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>601</v>
+      </c>
+      <c r="B684" s="3" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>601</v>
+      </c>
+      <c r="B685" s="3" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>601</v>
+      </c>
+      <c r="B686" s="3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>601</v>
+      </c>
+      <c r="B687" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>601</v>
+      </c>
+      <c r="B688" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>601</v>
+      </c>
+      <c r="B689" s="3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>601</v>
+      </c>
+      <c r="B690" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>747</v>
+      </c>
+      <c r="B691" s="5" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>601</v>
+      </c>
+      <c r="B692" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>601</v>
+      </c>
+      <c r="B693" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>601</v>
+      </c>
+      <c r="B694" s="3" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>601</v>
+      </c>
+      <c r="B695" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>734</v>
+      </c>
+      <c r="B696" s="5" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>795</v>
+      </c>
+      <c r="B697" s="5" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>601</v>
+      </c>
+      <c r="B698" s="3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>601</v>
+      </c>
+      <c r="B699" s="3" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>601</v>
+      </c>
+      <c r="B700" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>601</v>
+      </c>
+      <c r="B701" s="3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>601</v>
+      </c>
+      <c r="B702" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>601</v>
+      </c>
+      <c r="B703" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>601</v>
+      </c>
+      <c r="B704" s="3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>601</v>
+      </c>
+      <c r="B705" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>601</v>
+      </c>
+      <c r="B706" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>601</v>
+      </c>
+      <c r="B707" s="3" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>601</v>
+      </c>
+      <c r="B708" s="3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>601</v>
+      </c>
+      <c r="B709" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>601</v>
+      </c>
+      <c r="B710" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>601</v>
+      </c>
+      <c r="B711" s="3" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>601</v>
+      </c>
+      <c r="B712" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>601</v>
+      </c>
+      <c r="B713" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>796</v>
+      </c>
+      <c r="B714" s="5" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>601</v>
+      </c>
+      <c r="B715" s="3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>601</v>
+      </c>
+      <c r="B716" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>601</v>
+      </c>
+      <c r="B717" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>601</v>
+      </c>
+      <c r="B718" s="3" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>601</v>
+      </c>
+      <c r="B719" s="3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>601</v>
+      </c>
+      <c r="B720" s="3" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>601</v>
+      </c>
+      <c r="B721" s="3" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>601</v>
+      </c>
+      <c r="B722" s="3" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>601</v>
+      </c>
+      <c r="B723" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>601</v>
+      </c>
+      <c r="B724" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>601</v>
+      </c>
+      <c r="B725" s="3" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>601</v>
+      </c>
+      <c r="B726" s="3" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>601</v>
+      </c>
+      <c r="B727" s="3" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>601</v>
+      </c>
+      <c r="B728" s="3" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>601</v>
+      </c>
+      <c r="B729" s="3" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>797</v>
+      </c>
+      <c r="B730" s="5" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>601</v>
+      </c>
+      <c r="B731" s="3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>601</v>
+      </c>
+      <c r="B732" s="3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>601</v>
+      </c>
+      <c r="B733" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>601</v>
+      </c>
+      <c r="B734" s="3" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>601</v>
+      </c>
+      <c r="B735" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>601</v>
+      </c>
+      <c r="B736" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>601</v>
+      </c>
+      <c r="B737" s="3" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>601</v>
+      </c>
+      <c r="B738" s="3" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>601</v>
+      </c>
+      <c r="B739" s="3" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>601</v>
+      </c>
+      <c r="B740" s="3" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>601</v>
+      </c>
+      <c r="B741" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="C741" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>601</v>
+      </c>
+      <c r="B742" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="C742" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>798</v>
+      </c>
+      <c r="B743" s="5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>601</v>
+      </c>
+      <c r="B744" s="3" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>601</v>
+      </c>
+      <c r="B745" s="3" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>601</v>
+      </c>
+      <c r="B746" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="C746" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>601</v>
+      </c>
+      <c r="B747" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="C747" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>601</v>
+      </c>
+      <c r="B748" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="C748" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>799</v>
+      </c>
+      <c r="B749" s="5" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>601</v>
+      </c>
+      <c r="B750" s="3" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>601</v>
+      </c>
+      <c r="B751" s="3" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>601</v>
+      </c>
+      <c r="B752" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>601</v>
+      </c>
+      <c r="B753" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>601</v>
+      </c>
+      <c r="B754" s="3" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>601</v>
+      </c>
+      <c r="B755" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>601</v>
+      </c>
+      <c r="B756" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>601</v>
+      </c>
+      <c r="B757" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>601</v>
+      </c>
+      <c r="B758" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>601</v>
+      </c>
+      <c r="B759" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>601</v>
+      </c>
+      <c r="B760" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>601</v>
+      </c>
+      <c r="B761" s="3" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>800</v>
+      </c>
+      <c r="B762" s="5" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>601</v>
+      </c>
+      <c r="B763" s="3" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>601</v>
+      </c>
+      <c r="B764" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>601</v>
+      </c>
+      <c r="B765" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>801</v>
+      </c>
+      <c r="B766" s="5" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>601</v>
+      </c>
+      <c r="B767" s="3" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>601</v>
+      </c>
+      <c r="B768" s="3" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>601</v>
+      </c>
+      <c r="B769" s="3" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>601</v>
+      </c>
+      <c r="B770" s="3" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>601</v>
+      </c>
+      <c r="B771" s="3" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>601</v>
+      </c>
+      <c r="B772" s="3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>601</v>
+      </c>
+      <c r="B773" s="3" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>601</v>
+      </c>
+      <c r="B774" s="3" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>802</v>
+      </c>
+      <c r="B775" s="5" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>601</v>
+      </c>
+      <c r="B776" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>735</v>
+      </c>
+      <c r="B777" s="5" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>867</v>
+      </c>
+      <c r="B778" s="5" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>601</v>
+      </c>
+      <c r="B779" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="C779" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>601</v>
+      </c>
+      <c r="B780" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>601</v>
+      </c>
+      <c r="B781" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>868</v>
+      </c>
+      <c r="B782" s="5" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>601</v>
+      </c>
+      <c r="B783" s="3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>601</v>
+      </c>
+      <c r="B784" s="3" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>869</v>
+      </c>
+      <c r="B785" s="5" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>601</v>
+      </c>
+      <c r="B786" s="3" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>601</v>
+      </c>
+      <c r="B787" s="3" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>601</v>
+      </c>
+      <c r="B788" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>601</v>
+      </c>
+      <c r="B789" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>601</v>
+      </c>
+      <c r="B790" s="3" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>601</v>
+      </c>
+      <c r="B791" s="3" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>601</v>
+      </c>
+      <c r="B792" s="3" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>601</v>
+      </c>
+      <c r="B793" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>601</v>
+      </c>
+      <c r="B794" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>601</v>
+      </c>
+      <c r="B795" s="3" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>601</v>
+      </c>
+      <c r="B796" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="C796" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>601</v>
+      </c>
+      <c r="B797" s="3" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>601</v>
+      </c>
+      <c r="B798" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>601</v>
+      </c>
+      <c r="B799" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>601</v>
+      </c>
+      <c r="B800" s="3" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>870</v>
+      </c>
+      <c r="B801" s="5" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>601</v>
+      </c>
+      <c r="B802" s="3" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>601</v>
+      </c>
+      <c r="B803" s="3" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>601</v>
+      </c>
+      <c r="B804" s="3" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>601</v>
+      </c>
+      <c r="B805" s="3" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>601</v>
+      </c>
+      <c r="B806" s="3" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>601</v>
+      </c>
+      <c r="B807" s="3" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>601</v>
+      </c>
+      <c r="B808" s="3" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>601</v>
+      </c>
+      <c r="B809" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>601</v>
+      </c>
+      <c r="B810" s="3" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>601</v>
+      </c>
+      <c r="B811" s="3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>601</v>
+      </c>
+      <c r="B812" s="3" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>601</v>
+      </c>
+      <c r="B813" s="3" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>601</v>
+      </c>
+      <c r="B814" s="3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>601</v>
+      </c>
+      <c r="B815" s="3" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>871</v>
+      </c>
+      <c r="B816" s="5" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>601</v>
+      </c>
+      <c r="B817" s="3" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>601</v>
+      </c>
+      <c r="B818" s="3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>601</v>
+      </c>
+      <c r="B819" s="3" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>601</v>
+      </c>
+      <c r="B820" s="3" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>601</v>
+      </c>
+      <c r="B821" s="3" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>601</v>
+      </c>
+      <c r="B822" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>601</v>
+      </c>
+      <c r="B823" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>601</v>
+      </c>
+      <c r="B824" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>601</v>
+      </c>
+      <c r="B825" s="3" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>601</v>
+      </c>
+      <c r="B826" s="3" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>601</v>
+      </c>
+      <c r="B827" s="2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>601</v>
+      </c>
+      <c r="B828" s="3" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>601</v>
+      </c>
+      <c r="B829" s="3" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>601</v>
+      </c>
+      <c r="B830" s="3" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>872</v>
+      </c>
+      <c r="B831" s="5" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B832" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B833" s="3" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B834" s="3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>601</v>
+      </c>
+      <c r="B835" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="C835" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>736</v>
+      </c>
+      <c r="B836" s="5" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>601</v>
+      </c>
+      <c r="B837" s="3" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>601</v>
+      </c>
+      <c r="B838" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>601</v>
+      </c>
+      <c r="B839" s="3" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>601</v>
+      </c>
+      <c r="B840" s="3" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>601</v>
+      </c>
+      <c r="B841" s="3" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>601</v>
+      </c>
+      <c r="B842" s="3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>601</v>
+      </c>
+      <c r="B843" s="3" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
         <v>56</v>
       </c>
-      <c r="B469" t="s">
+      <c r="B844" t="s">
         <v>31</v>
       </c>
-      <c r="C469">
+      <c r="C844">
         <v>2</v>
       </c>
-      <c r="D469">
+      <c r="D844">
         <v>2</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>601</v>
+      </c>
+      <c r="B845" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="C845" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>601</v>
+      </c>
+      <c r="B846" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>601</v>
+      </c>
+      <c r="B847" s="3" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>601</v>
+      </c>
+      <c r="B848" s="3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>601</v>
+      </c>
+      <c r="B849" s="3" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>601</v>
+      </c>
+      <c r="B850" s="3" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>601</v>
+      </c>
+      <c r="B851" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="C851" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>601</v>
+      </c>
+      <c r="B852" s="3" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>601</v>
+      </c>
+      <c r="B853" s="3" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>601</v>
+      </c>
+      <c r="B854" s="3" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>601</v>
+      </c>
+      <c r="B855" s="3" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>601</v>
+      </c>
+      <c r="B856" s="3" t="s">
+        <v>943</v>
       </c>
     </row>
   </sheetData>
@@ -7318,9 +12210,331 @@
     <hyperlink ref="B453" r:id="rId357" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/pianificazione-e-catasto/pianificazione-comunale/piani-strutturali-psc/infrastrutture-e-servizi-per-la-mobilita-s_mob_pl"/>
     <hyperlink ref="B454" r:id="rId358" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/pianificazione-e-catasto/pianificazione-comunale/piani-strutturali-psc/infrastrutture-e-servizi-per-la-mobilita-s_mob_pt"/>
     <hyperlink ref="B455" r:id="rId359" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/pianificazione-e-catasto/pianificazione-comunale/piani-strutturali-psc/assetto-territoriale-s_ass_pl"/>
+    <hyperlink ref="B459" r:id="rId360" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/pianificazione-e-catasto/pianificazione-regionale/carta-della-utilizzazione-reale-del-suolo-del-ptpr-1993"/>
+    <hyperlink ref="B460" r:id="rId361" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/pianificazione-e-catasto/pianificazione-regionale/carta-della-utilizzazione-reale-del-suolo-del-ptpr-1993"/>
+    <hyperlink ref="B461" r:id="rId362" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/pianificazione-e-catasto/pianificazione-regionale/carta-delle-tutele-del-ptpr-1993"/>
+    <hyperlink ref="B464" r:id="rId363" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/pianificazione-e-catasto/uso-del-suolo/1994-coperture-vettoriali-delluso-del-suolo-edizione-2015"/>
+    <hyperlink ref="B465" r:id="rId364" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/pianificazione-e-catasto/uso-del-suolo/2011-coperture-vettoriali-delluso-del-suolo-edizione-2013"/>
+    <hyperlink ref="B466" r:id="rId365" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/pianificazione-e-catasto/uso-del-suolo/2008-coperture-vettoriali-delluso-del-suolo-edizione-2011"/>
+    <hyperlink ref="B467" r:id="rId366" display="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;trp=false&amp;ctext=2003%20-%20Coperture%20vettoriali%20dell%27uso%20del%20suolo%20-%20Edizione%202011&amp;sprop=https%3A%2F%2Fgeoportale.regione.emilia-romagna.it%2Fit%2Fcatalogo%2Fdati-cartografici%2Fpianificazione-e-catasto%2Fuso-del-suolo%2F2003-coperture-vettoriali-delluso-del-suolo-edizione-2011&amp;sprop=name:2003%20-%20Coperture%20vettoriali%20dell%27uso%20del%20suolo%20-%20Edizione%202011&amp;details=Base%20dati%20georeferenziata%20di%20tipo%20vettoriale%20contenente%20raggruppamenti%20omogenei%20di%20dati%20riferiti%20alle%20varie%20tipologie%20d%27uso%20del%20suolo%202003%2C%20scala%201%3A25.000.%20La%20necessit%C3%A0%20di%20provvedere%20all%27aggiornamento%20delle%20informazioni%20per%20un%20tematismo%20soggetto%20a%20mutamenti%20rapidi%20nel%20corso%20del%20tempo%2C%20ha%20portato%20a%20%E2%80%A6%0A%0AVisualizza%20dettagli%20(link%20al%20sito):%20https%3A%2F%2Fgeoportale.regione.emilia-romagna.it%2Fit%2Fcatalogo%2Fdati-cartografici%2Fpianificazione-e-catasto%2Fuso-del-suolo%2F2003-coperture-vettoriali-delluso-del-suolo-edizione-2011"/>
+    <hyperlink ref="B468" r:id="rId367" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/pianificazione-e-catasto/uso-del-suolo/1994-coperture-vettoriali-delluso-del-suolo-edizione-2010"/>
+    <hyperlink ref="B469" r:id="rId368" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/pianificazione-e-catasto/uso-del-suolo/1976-coperture-vettoriali-delluso-del-suolo-edizione-2011"/>
+    <hyperlink ref="B470" r:id="rId369" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/pianificazione-e-catasto/uso-del-suolo/1853-coperture-vettoriali-delluso-del-suolo-storico-edizione-2007-poligoni"/>
+    <hyperlink ref="B471" r:id="rId370" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/pianificazione-e-catasto/uso-del-suolo/1853-coperture-vettoriali-delluso-del-suolo-storico-edizione-2007-punti"/>
+    <hyperlink ref="B472" r:id="rId371" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/pianificazione-e-catasto/uso-del-suolo/1853-coperture-vettoriali-delluso-del-suolo-storico-edizione-2011-poligoni"/>
+    <hyperlink ref="B473" r:id="rId372" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/pianificazione-e-catasto/uso-del-suolo/1853-coperture-vettoriali-delluso-del-suolo-storico-edizione-2011-punti"/>
+    <hyperlink ref="B474" r:id="rId373" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/pianificazione-e-catasto/uso-del-suolo/1994-coperture-vettoriali-delluso-del-suolo-edizione-2015-1"/>
+    <hyperlink ref="B485" r:id="rId374" display="http://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/cartografia-di-base/database-topografico-regionale/immobili/edificato/cassone-edilizio-dbtr-fab_gpg"/>
+    <hyperlink ref="B486" r:id="rId375" display="http://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/cartografia-di-base/database-topografico-regionale/immobili/edificato/edificio-dbtr-edi_gpg"/>
+    <hyperlink ref="B487" r:id="rId376" display="http://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/cartografia-di-base/database-topografico-regionale/immobili/edificato/unita-volumetrica-dbtr-uvl_gpg"/>
+    <hyperlink ref="B490" r:id="rId377" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/strutture/infrastrutture-a-rete/passaggi-a-livello-1-10.000-digitale-edizione-del-1988"/>
+    <hyperlink ref="B491" r:id="rId378" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/strutture/infrastrutture-a-rete/ponti-1-10.000-digitale-edizione-del-1988"/>
+    <hyperlink ref="B497" r:id="rId379" display="http://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/cartografia-di-base/database-topografico-regionale/viabilita/strade/elemento-di-percorso-ciclabile-dbtr-epc_gli"/>
+    <hyperlink ref="B498" r:id="rId380" display="http://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/cartografia-di-base/database-topografico-regionale/viabilita/ferrovie/elemento-ferroviario-dbtr-efe_gli"/>
+    <hyperlink ref="B499" r:id="rId381" display="http://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/cartografia-di-base/database-topografico-regionale/viabilita/strade/elemento-di-viabilita-mista-secondaria-dbtr-evs_gli"/>
+    <hyperlink ref="B500" r:id="rId382" display="http://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/cartografia-di-base/database-topografico-regionale/viabilita/ferrovie/intersezione-della-rete-ferroviaria-dbtr-ife_gpt"/>
+    <hyperlink ref="B501" r:id="rId383" display="http://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/cartografia-di-base/database-topografico-regionale/viabilita/strade/sentiero-dbtr-sen_gli"/>
+    <hyperlink ref="B502" r:id="rId384" display="http://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/cartografia-di-base/database-topografico-regionale/gestione-viabilita-indirizzi/amministrazione-viabilita/dbtr-strada-str_gli"/>
+    <hyperlink ref="B503" r:id="rId385" display="http://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/cartografia-di-base/database-topografico-regionale/gestione-viabilita-indirizzi/toponimi-e-numeri-civici/dbtr-toponimo-stradale-comunale-tps_gli"/>
+    <hyperlink ref="B504" r:id="rId386" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/trasporti/terrestre/archi-ferroviari-1-10.000-digitale-edizione-del-1988"/>
+    <hyperlink ref="B505" r:id="rId387" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/trasporti/terrestre/archi-stradali-1-10.000-digitale-edizione-del-1988"/>
+    <hyperlink ref="B507" r:id="rId388" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/dati-cartografici/agea/Agea2008"/>
+    <hyperlink ref="B514" r:id="rId389" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/itinerari-geologico-ambientali-nel-parco-nazionale-foreste-casentinesi-1-60.000-edizione-2002"/>
+    <hyperlink ref="B515" r:id="rId390" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/itinerari-geologico-ambientali-nella-val-ceno-1-60.000-edizione-1999"/>
+    <hyperlink ref="B516" r:id="rId391" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/itinerari-geologico-ambientali-nella-val-trebbia-1-30.000-edizione-2002"/>
+    <hyperlink ref="B517" r:id="rId392" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/itinerari-geologico-ambientali-nelle-colline-bolognesi-1-50.000-edizione-2001"/>
+    <hyperlink ref="B518" r:id="rId393" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/itinerari-geologico-ambientali-nelle-terre-matildiche-tra-canossa-e-quattro-castella-1-15.000-edizione-2004"/>
+    <hyperlink ref="B567" r:id="rId394" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/itinerari-geologico-ambientali-nella-valle-del-marecchia"/>
+    <hyperlink ref="B568" r:id="rId395" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/itinerari-geologico-ambientali-nelle-terre-del-piacenziano-dalla-valle-del-vezzeno-allo-stirone"/>
+    <hyperlink ref="B569" r:id="rId396" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/trekking-mountain-bike-al-cimone"/>
+    <hyperlink ref="B570" r:id="rId397" display="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;trp=false&amp;ctext=Trekking%20%26%20Mountain%20Bike%20al%20Corno%20alle%20Scale&amp;sprop=https%3A%2F%2Fgeoportale.regione.emilia-romagna.it%2Fit%2Fcatalogo%2Fmateriale-cartografico%2Fmappe-cartacee%2Fambiente%2Ftrekking-mountain-bike-al-corno-alle-scale&amp;sprop=name:Trekking%20%26%20Mountain%20Bike%20al%20Corno%20alle%20Scale&amp;details=Realizzata%20per%20escursionisti%20a%20piedi%20e%20MTBikers%2C%20la%20mappa%20riporta%20la%20rete%20dei%20sentieri%20CAI%20(Club%20Alpino%20Italiano)%20e%20del%20Comune%20di%20Sestola%2C%20con%20indicazione%20dei%20tratti%20ciclabili%3A%20questi%20ultimi%20sono%20rappresentati%20con%20apposita%20simbologia%20e%20classificati%20con%20la%20scala%20di%20difficolt%C3%A0%20IMBA.%0A%0AVisualizza%20dettagli%20(link%20al%20sito):%20https%3A%2F%2Fgeoportale.regione.emilia-romagna.it%2Fit%2Fcatalogo%2Fmateriale-cartografico%2Fmappe-cartacee%2Fambiente%2Ftrekking-mountain-bike-al-corno-alle-scale"/>
+    <hyperlink ref="B520" r:id="rId398" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/vegetazione/carta-della-vegetazione-alta-val-parma-e-cedra-edizione-2002-resource"/>
+    <hyperlink ref="B521" r:id="rId399" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/vegetazione/carta-della-vegetazione-alto-appennino-reggiano-edizione-2002"/>
+    <hyperlink ref="B522" r:id="rId400" display="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;trp=false&amp;ctext=Carta%20della%20vegetazione%20-%20Monte%20Nero%20(PC)%20-%20Edizione%202004&amp;sprop=https%3A%2F%2Fgeoportale.regione.emilia-romagna.it%2Fit%2Fcatalogo%2Fmateriale-cartografico%2Fmappe-cartacee%2Fambiente%2Fvegetazione%2Fcarta-della-vegetazione-monte-nero-pc-edizione-2004&amp;sprop=name:Carta%20della%20vegetazione%20-%20Monte%20Nero%20(PC)%20-%20Edizione%202004&amp;details=La%20carta%20della%20vegetazione%20descrive%20la%20distribuzione%20sul%20territorio%20della%20vegetazione%20e%20delle%20relative%20caratteristiche%20biologiche%20ed%20ecologiche.%20Nella%20carta%20della%20vegetazione%20le%20aree%20riferite%20alle%20varie%20tipologie%20vegetazionali%20sono%20indicate%20mediante%20sigle%20mentre%20i%20complessi%20di%20tipologie%20simili%20son%20%E2%80%A6%0A%0AVisualizza%20dettagli%20(link%20al%20sito):%20https%3A%2F%2Fgeoportale.regione.emilia-romagna.it%2Fit%2Fcatalogo%2Fmateriale-cartografico%2Fmappe-cartacee%2Fambiente%2Fvegetazione%2Fcarta-della-vegetazione-monte-nero-pc-edizione-2004"/>
+    <hyperlink ref="B523" r:id="rId401" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/vegetazione/carta-della-vegetazione-parco-regionale-dei-boschi-di-carrega-edizione-1999"/>
+    <hyperlink ref="B524" r:id="rId402" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/vegetazione/carta-della-vegetazione-parco-regionale-dei-gessi-bolognesi-e-calanchi-dellabbadessa-edizione-1999"/>
+    <hyperlink ref="B525" r:id="rId403" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/vegetazione/carta-della-vegetazione-parco-regionale-dei-laghi-di-suviana-e-brasimone-edizione-2002"/>
+    <hyperlink ref="B526" r:id="rId404" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/vegetazione/carta-della-vegetazione-parco-regionale-dei-sassi-di-roccamalatina-edizione-1996"/>
+    <hyperlink ref="B527" r:id="rId405" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/vegetazione/carta-della-vegetazione-parco-regionale-del-corno-alle-scale-edizione-2002"/>
+    <hyperlink ref="B528" r:id="rId406" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/vegetazione/carta-della-vegetazione-parco-regionale-del-delta-del-po-stazione-campotto-di-argenta-edizione-1999"/>
+    <hyperlink ref="B529" r:id="rId407" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/vegetazione/carta-della-vegetazione-parco-regionale-del-delta-del-po-stazione-pineta-di-classe-e-saline-di-cervia-edizione-1999"/>
+    <hyperlink ref="B530" r:id="rId408" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/vegetazione/carta-della-vegetazione-parco-regionale-del-delta-del-po-stazione-pineta-di-san-vitale-e-piallasse-di-ravenna-edizione-1999"/>
+    <hyperlink ref="B531" r:id="rId409" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/vegetazione/carta-della-vegetazione-parco-regionale-del-delta-del-po-stazione-volano-mesola-goro-edizione-1999"/>
+    <hyperlink ref="B532" r:id="rId410" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/vegetazione/carta-della-vegetazione-parco-regionale-dellabbazia-di-monteveglio-edizione-del-2004"/>
+    <hyperlink ref="B533" r:id="rId411" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/vegetazione/carta-della-vegetazione-parco-regionale-del-delta-del-po-stazioni-centro-storico-e-valli-di-comacchio-edizione-1999"/>
+    <hyperlink ref="B534" r:id="rId412" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/vegetazione/carta-della-vegetazione-parco-regionale-dellalto-appennino-modenese-edizione-1994"/>
+    <hyperlink ref="B535" r:id="rId413" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/vegetazione/carta-della-vegetazione-parco-regionale-di-monte-sole-contrafforte-pliocenico-edizione-1996"/>
+    <hyperlink ref="B536" r:id="rId414" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/vegetazione/carta-della-vegetazione-parco-regionale-fluviale-del-taro-edizione-1999"/>
+    <hyperlink ref="B537" r:id="rId415" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/vegetazione/carta-della-vegetazione-parco-regionale-fluviale-dello-stirone-edizione-2002"/>
+    <hyperlink ref="B538" r:id="rId416" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/vegetazione/carta-della-vegetazione-tavola-236-se-montese-edizione-1990"/>
+    <hyperlink ref="B539" r:id="rId417" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/vegetazione/carta-della-vegetazione-torriana-sezione-267010-edizione-1995"/>
+    <hyperlink ref="B540" r:id="rId418" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/vegetazione/carta-della-vegetazione-valle-del-sintria-ra-edizione-2004"/>
+    <hyperlink ref="B541" r:id="rId419" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/vegetazione/carta-della-vegetazione-versante-romagnolo-del-parco-nazionale-delle-foreste-casentinesi-m.-falterona-campigna-edizione-1995"/>
+    <hyperlink ref="B542" r:id="rId420" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/vegetazione/carte-della-vegetazione-dei-parchi-regionali-dellemilia-romagna-edizione-2004"/>
+    <hyperlink ref="B543" r:id="rId421" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/vegetazione/carta-della-vegetazione-parco-regionale-dellalto-appennino-modenese-foglio-ovest-edizione-1994"/>
+    <hyperlink ref="B544" r:id="rId422" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/vegetazione/carta-della-vegetazione-alto-appennino-reggiano-foglio-ovest-edizione-2002-1"/>
+    <hyperlink ref="B545" r:id="rId423" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/vegetazione/carta-della-vegetazione-parco-regionale-dellalto-appennino-modenese-foglio-ovest-edizione-1994-1"/>
+    <hyperlink ref="B547" r:id="rId424" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/escursionismo/carta-escursionistica-1-10.000-parco-regionale-sassi-di-roccamalatina-edizione-2010"/>
+    <hyperlink ref="B548" r:id="rId425" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/escursionismo/carta-escursionistica-1-25.000-parco-regionale-gessi-bolognesi-e-calanchi-dellabbadessa-medie-valli-idice-zena-savena-edizione-2005"/>
+    <hyperlink ref="B549" r:id="rId426" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/escursionismo/carta-escursionistica-1-30.000-sentieri-del-circuito-val-bidente-e-val-rabbi-edizione-2002"/>
+    <hyperlink ref="B550" r:id="rId427" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/escursionismo/carta-escursionistica-dellappennino-emiliano-romagnolo-1-50.000-edizione-1996-2008"/>
+    <hyperlink ref="B551" r:id="rId428" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/escursionismo/emilia-romagna-tra-pianura-e-collina-cofanetto"/>
+    <hyperlink ref="B552" r:id="rId429" display="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;trp=false&amp;ctext=Emilia-Romagna%20tra%20pianura%20e%20collina%20-%20Monografie&amp;sprop=https%3A%2F%2Fgeoportale.regione.emilia-romagna.it%2Fit%2Fcatalogo%2Fmateriale-cartografico%2Fmappe-cartacee%2Fambiente%2Fescursionismo%2Femilia-romagna-tra-pianura-e-collina-monografie&amp;sprop=name:Emilia-Romagna%20tra%20pianura%20e%20collina%20-%20Monografie&amp;details=Serie%20monografica%20pubblicata%20nel%202000%20per%20proporre%20al%20pubblico%20territori%20escursionisticamente%20interessanti%20in%20zone%20collinari%20o%20di%20pianura%20dell%27Emilia-Romagna%3A%20anche%20zone%20non%20necessariamente%20di%20alta%20montagna%20possono%20essere%20adatte%20sia%20per%20ragioni%20morfologiche%20o%20naturalistiche%20oppure%20semplicemente%20pe%20%E2%80%A6%0A%0AVisualizza%20dettagli%20(link%20al%20sito):%20https%3A%2F%2Fgeoportale.regione.emilia-romagna.it%2Fit%2Fcatalogo%2Fmateriale-cartografico%2Fmappe-cartacee%2Fambiente%2Fescursionismo%2Femilia-romagna-tra-pianura-e-collina-monografie"/>
+    <hyperlink ref="B553" r:id="rId430" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/escursionismo/alta-via-dei-parchi-carte-escursionistiche-1-50.000"/>
+    <hyperlink ref="B554" r:id="rId431" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/escursionismo/alta-via-dei-parchi-carta-nr.-1-alto-appennino-parmense-parco-nazionale-appennino-tosco-emiliano-e-parco-regionale-valli-del-cedra-e-del-parma"/>
+    <hyperlink ref="B555" r:id="rId432" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/escursionismo/alta-via-dei-parchi-carta-nr.-2-alto-appennino-reggiano-parco-nazionale-appennino-tosco-emiliano"/>
+    <hyperlink ref="B556" r:id="rId433" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/escursionismo/alta-via-dei-parchi-carta-nr.-3-alto-appennino-modenese-parco-regionale-alto-appennino-modenese-e-parco-regionale-corno-alle-scale"/>
+    <hyperlink ref="B557" r:id="rId434" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/escursionismo/alta-via-dei-parchi-carta-nr.-4-alto-appennino-bolognese-parco-regionale-corno-alle-scale-e-parco-regionale-laghi-di-suviana-e-brasimone"/>
+    <hyperlink ref="B558" r:id="rId435" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/escursionismo/alta-via-dei-parchi-carta-nr.-5-appennino-imolese-parco-regionale-vena-del-gesso-romagnola-ovest"/>
+    <hyperlink ref="B559" r:id="rId436" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/escursionismo/alta-via-dei-parchi-carta-nr.-6-appennino-faentino-parco-regionale-vena-del-gesso-romagnola"/>
+    <hyperlink ref="B560" r:id="rId437" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/escursionismo/alta-via-dei-parchi-carta-nr.-7-alto-appennino-forlivese-parco-nazionale-foreste-casentinesi-monte-falterona-e-campigna-nord"/>
+    <hyperlink ref="B561" r:id="rId438" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/escursionismo/alta-via-dei-parchi-carta-nr.-8-alto-appennino-forlivese-e-cesenate-parco-nazionale-foreste-casentinesi-monte-falterona-e-campigna-sud"/>
+    <hyperlink ref="B562" r:id="rId439" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/escursionismo/alta-via-dei-parchi-carte-escursionistiche-1-50.000.-cofanetto-contenente-8-carte-1"/>
+    <hyperlink ref="B563" r:id="rId440" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/escursionismo/carta-escursionistica-1-25.000-parco-nazionale-delle-foreste-casentinesi-monte-falterona-e-campigna-edizione-2001"/>
+    <hyperlink ref="B564" r:id="rId441" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/escursionismo/carta-escursionistica-1-25.000-comune-di-castel-daiano-edizione-2011"/>
+    <hyperlink ref="B565" r:id="rId442" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/escursionismo/carta-escursionistica-1-25.000-appennino-tosco-romagnolo-percorsi-escursionistici-fra-le-valli-del-lamone-e-del-senio.-sentieri-garibaldi-e-frassati-edizione-2012"/>
+    <hyperlink ref="B566" r:id="rId443" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/ambiente/escursionismo/carta-escursionistica-1-25.000-parco-regionale-gessi-bolognesi-e-calanchi-dellabbadessa-medie-valli-idice-zena-savena-edizione-2017"/>
+    <hyperlink ref="B573" r:id="rId444" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/cartografia-di-base/carta-culturale-turistica-di-bologna-1-6.000-1-25.000-edizione-2000"/>
+    <hyperlink ref="B574" r:id="rId445" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/cartografia-di-base/carta-da-satellite-dellemilia-romagna-1-250.000-edizione-2000"/>
+    <hyperlink ref="B575" r:id="rId446" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/cartografia-di-base/carta-fisico-politica-1-250.000-edizione-2008"/>
+    <hyperlink ref="B576" r:id="rId447" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/cartografia-di-base/carta-storica-regionale-1-50.000-edizione-1999"/>
+    <hyperlink ref="B577" r:id="rId448" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/cartografia-di-base/carta-tecnica-regionale-1-5.000-edizione-aggiornata"/>
+    <hyperlink ref="B578" r:id="rId449" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/cartografia-di-base/carta-tecnica-regionale-1-5.000-prima-edizione"/>
+    <hyperlink ref="B579" r:id="rId450" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/cartografia-di-base/carta-topografica-regionale-1-200.000-edizione-1981"/>
+    <hyperlink ref="B580" r:id="rId451" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/cartografia-di-base/carta-topografica-regionale-1-25.000-edizione-definitiva"/>
+    <hyperlink ref="B581" r:id="rId452" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/cartografia-di-base/carta-topografica-regionale-1-25.000-edizione-provvisoria"/>
+    <hyperlink ref="B582" r:id="rId453" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/cartografia-di-base/carta-topografica-regionale-1-250.000-edizione-1994"/>
+    <hyperlink ref="B583" r:id="rId454" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/cartografia-di-base/carta-topografica-regionale-1-50.000-edizione-1987"/>
+    <hyperlink ref="B584" r:id="rId455" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/cartografia-di-base/carta-topografica-regionale-1-50.000-foglio-speciale-bologna"/>
+    <hyperlink ref="B585" r:id="rId456" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/cartografia-di-base/cartografia-topografica-locale-a-grande-scala-1-1.000-ravenna-edizione-1979"/>
+    <hyperlink ref="B586" r:id="rId457" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/cartografia-di-base/cartografia-topografica-locale-a-grande-scala-1-2.000-budrio-edizione-1980"/>
+    <hyperlink ref="B587" r:id="rId458" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/cartografia-di-base/cartografia-topografica-locale-a-grande-scala-1-2.000-cesena-edizione-1979-1981"/>
+    <hyperlink ref="B588" r:id="rId459" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/cartografia-di-base/cartografia-topografica-locale-a-grande-scala-1-2.000-comacchio-edizione-1978"/>
+    <hyperlink ref="B589" r:id="rId460" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/cartografia-di-base/cartografia-topografica-locale-a-grande-scala-1-2.000-s.-giovanni-in-persiceto-edizione-1979"/>
+    <hyperlink ref="B590" r:id="rId461" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/cartografia-di-base/carta-tecnica-regionale-1-10.000-edizione-aggiornata"/>
+    <hyperlink ref="B591" r:id="rId462" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/cartografia-di-base/carta-tecnica-regionale-1-10.000-prima-edizione"/>
+    <hyperlink ref="B596" r:id="rId463" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/informazioni-geoscientifiche/carta-clivometrica-1-25.000-prima-edizione"/>
+    <hyperlink ref="B597" r:id="rId464" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/informazioni-geoscientifiche/carta-del-rischio-geo-ambientale-1-250.000-edizione-1994"/>
+    <hyperlink ref="B598" r:id="rId465" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/informazioni-geoscientifiche/carta-geologico-strutturale-dellappennino-emiliano-romagnolo-1-250.000-edizione-2002"/>
+    <hyperlink ref="B599" r:id="rId466" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/informazioni-geoscientifiche/carta-litologica-1-25.000-edizione-1984"/>
+    <hyperlink ref="B600" r:id="rId467" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/informazioni-geoscientifiche/carta-morfologica-1-200.000-edizione-1980"/>
+    <hyperlink ref="B601" r:id="rId468" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/informazioni-geoscientifiche/carta-sismotettonica-della-regione-emilia-romagna-1-250.000-edizione-2004"/>
+    <hyperlink ref="B602" r:id="rId469" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/informazioni-geoscientifiche/il-paesaggio-geologico-dellemilia-romagna-edizione-2009"/>
+    <hyperlink ref="B603" r:id="rId470" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/informazioni-geoscientifiche/le-pietre-di-bologna-litologia-di-una-citta-edizione-2005"/>
+    <hyperlink ref="B604" r:id="rId471" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/informazioni-geoscientifiche/schema-direttore-della-pericolosita-geo-ambientale-edizione-2002"/>
+    <hyperlink ref="B608" r:id="rId472" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/informazioni-geoscientifiche/bologna-sotto-bologna-carta-geoarcheologica"/>
+    <hyperlink ref="B612" r:id="rId473" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/pianificazione-e-catasto/carta-della-capacita-duso-dei-suoli-1-200.000-prima-edizione"/>
+    <hyperlink ref="B613" r:id="rId474" display="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;trp=false&amp;ctext=Carta%20di%20base%20del%20paesaggio%20archeologico%201%3A25.000%20-%20Edizione%201989&amp;sprop=https%3A%2F%2Fgeoportale.regione.emilia-romagna.it%2Fit%2Fcatalogo%2Fmateriale-cartografico%2Fmappe-cartacee%2Fpianificazione-e-catasto%2Fcarta-di-base-del-paesaggio-archeologico-1-25.000-edizione-1989&amp;sprop=name:Carta%20di%20base%20del%20paesaggio%20archeologico%201%3A25.000%20-%20Edizione%201989&amp;details=La%20carta%2C%20che%20%C3%A8%20stata%20acquisita%20in%20elaboratore%2C%20costituisce%20un%20inventario%20topografico%20delle%20aree%20regionali%20di%20maggior%20interesse%20archeologico-paesistico%2C%20cio%C3%A8%20quelle%20con%20la%20presenza%20di%20reperti%20omogenei%20ed%20estesi%20per%20spazi%20extraurbani%20considerevoli%2C%20in%20zone%20comunque%20non%20fortemente%20compromesse%20da%20mas%20%E2%80%A6%0A%0AVisualizza%20dettagli%20(link%20al%20sito):%20https%3A%2F%2Fgeoportale.regione.emilia-romagna.it%2Fit%2Fcatalogo%2Fmateriale-cartografico%2Fmappe-cartacee%2Fpianificazione-e-catasto%2Fcarta-di-base-del-paesaggio-archeologico-1-25.000-edizione-1989"/>
+    <hyperlink ref="B615" r:id="rId475" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/pianificazione-e-catasto/usi-del-suolo/carta-delluso-del-suolo-1-25.000-edizione-1976"/>
+    <hyperlink ref="B616" r:id="rId476" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/pianificazione-e-catasto/usi-del-suolo/carta-delluso-del-suolo-1-25.000-edizione-1994"/>
+    <hyperlink ref="B617" r:id="rId477" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/pianificazione-e-catasto/usi-del-suolo/carta-delluso-del-suolo-1-250.000-edizione-2007"/>
+    <hyperlink ref="B618" r:id="rId478" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/pianificazione-e-catasto/usi-del-suolo/carta-delluso-del-suolo-storico-1-100.000-edizione-2007"/>
+    <hyperlink ref="B619" r:id="rId479" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/pianificazione-e-catasto/usi-del-suolo/carta-delluso-del-suolo-2003-1-25.000-tavola-201-se-modena-edizione-2005"/>
+    <hyperlink ref="B620" r:id="rId480" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/pianificazione-e-catasto/usi-del-suolo/carta-delluso-reale-del-suolo-1-200.000-edizione-1976"/>
+    <hyperlink ref="B621" r:id="rId481" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/pianificazione-e-catasto/usi-del-suolo/carta-della-destinazione-del-suolo-1-25.000-prima-edizione"/>
+    <hyperlink ref="B625" r:id="rId482" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/societa/piani-topografici-di-censimento-edizione-1971"/>
+    <hyperlink ref="B626" r:id="rId483" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/mappe-cartacee/societa/piani-topografici-di-censimento-edizione-1981"/>
+    <hyperlink ref="B631" r:id="rId484" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/immagini/immagini-aerofotografiche/riprese-aerofotografiche-1969-1973-riprese-1969-1973"/>
+    <hyperlink ref="B632" r:id="rId485" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/immagini/immagini-aerofotografiche/riprese-aerofotografiche-1976-1978-riprese-1976-1978"/>
+    <hyperlink ref="B633" r:id="rId486" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/immagini/immagini-aerofotografiche/riprese-aerofotografiche-1979-1981-riprese-1979-1981"/>
+    <hyperlink ref="B634" r:id="rId487" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/immagini/immagini-aerofotografiche/riprese-aerofotografiche-1985-1986-riprese-1985-1986"/>
+    <hyperlink ref="B635" r:id="rId488" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/immagini/immagini-aerofotografiche/riprese-aerofotografiche-1987-1988-riprese-1987-1988"/>
+    <hyperlink ref="B636" r:id="rId489" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/immagini/immagini-aerofotografiche/riprese-aerofotografiche-1991-e-1993-riprese-1991-e-1993"/>
+    <hyperlink ref="B637" r:id="rId490" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/immagini/immagini-aerofotografiche/riprese-aerofotografiche-1994-volo-italia-riprese-1994"/>
+    <hyperlink ref="B638" r:id="rId491" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/immagini/immagini-aerofotografiche/riprese-aerofotografiche-1979-bologna"/>
+    <hyperlink ref="B639" r:id="rId492" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/immagini/immagini-aerofotografiche/riprese-aerofotografiche-1979-piacenza"/>
+    <hyperlink ref="B640" r:id="rId493" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/immagini/immagini-aerofotografiche/riprese-aerofotografiche-1979-forli"/>
+    <hyperlink ref="B641" r:id="rId494" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/immagini/immagini-aerofotografiche/riprese-aerofotografiche-1981-rimini"/>
+    <hyperlink ref="B642" r:id="rId495" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/immagini/immagini-aerofotografiche/riprese-aerofotografiche-1987-riprese-1987"/>
+    <hyperlink ref="B643" r:id="rId496" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/immagini/immagini-aerofotografiche/riprese-aerofotografiche-1988-riprese-1988"/>
+    <hyperlink ref="B644" r:id="rId497" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/immagini/immagini-aerofotografiche/riprese-aerofotografiche-volo-italia-1988-1989-riprese-1988-1989"/>
+    <hyperlink ref="B645" r:id="rId498" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/immagini/immagini-aerofotografiche/riprese-aerofotografiche-volo-ctr-1-90-riprese-1991"/>
+    <hyperlink ref="B646" r:id="rId499" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/immagini/immagini-aerofotografiche/riprese-aerofotografiche-volo-costa-adriatica-riprese-1992-1993"/>
+    <hyperlink ref="B647" r:id="rId500" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/immagini/immagini-aerofotografiche/riprese-aerofotografiche-volo-2-91-riprese-1993"/>
+    <hyperlink ref="B648" r:id="rId501" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/immagini/immagini-aerofotografiche/riprese-aerofotografiche-volo-1-92-riprese-1993"/>
+    <hyperlink ref="B649" r:id="rId502" display="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;trp=false&amp;ctext=Riprese%20Aerofotografiche%20Volo%202%2F92%20-%20Riprese%201993&amp;sprop=https%3A%2F%2Fgeoportale.regione.emilia-romagna.it%2Fit%2Fcatalogo%2Fmateriale-cartografico%2Fimmagini%2Fimmagini-aerofotografiche%2Friprese-aerofotografiche-volo-2-92-riprese-1993&amp;sprop=name:Riprese%20Aerofotografiche%20Volo%202%2F92%20-%20Riprese%201993&amp;details=E%27%20stata%20utilizzata%20pellicola%20pancromatica%20in%20bianco%2Fnero%3B%20il%20formato%20dei%20fotogrammi%20%C3%A8%20di%2023x23%20cm.%20L%27andamento%20delle%20strisciate%20%C3%A8%20da%20ovest%20a%20est%20e%20viceversa%3B%20copertura%20stereoscopica%20con%20sovrapposizione%20longitudinale%20media%20del%2060%25%20e%20laterale%20del%2020%25.%0A%0AVisualizza%20dettagli%20(link%20al%20sito):%20https%3A%2F%2Fgeoportale.regione.emilia-romagna.it%2Fit%2Fcatalogo%2Fmateriale-cartografico%2Fimmagini%2Fimmagini-aerofotografiche%2Friprese-aerofotografiche-volo-2-92-riprese-1993"/>
+    <hyperlink ref="B650" r:id="rId503" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/immagini/immagini-aerofotografiche/riprese-aerofotografiche-volo-93_08-riprese-1993"/>
+    <hyperlink ref="B651" r:id="rId504" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/immagini/immagini-aerofotografiche/riprese-aerofotografiche-volo-93_25-riprese-1993"/>
+    <hyperlink ref="B652" r:id="rId505" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/immagini/immagini-aerofotografiche/riprese-aerofotografiche-volo-italia-94-riprese-1994"/>
+    <hyperlink ref="B657" r:id="rId506" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/collana-studi-e-ricerche/valutazione-della-tossicita-per-luomo-degli-antiparassitari-ad-uso-agricolo-il-contributo-della-regione-emilia-romagna-ii-edizione"/>
+    <hyperlink ref="B658" r:id="rId507" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/collana-studi-e-ricerche/impatto-delluso-agricolo-del-suolo-sul-dissesto-idrogeologico-area-pilota-collina-cesenate"/>
+    <hyperlink ref="B659" r:id="rId508" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/collana-studi-e-ricerche/la-contaminazione-dei-vini-da-residui-di-fitofarmaci"/>
+    <hyperlink ref="B661" r:id="rId509" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/pubblicazioni-varie/gli-animali-domestici-nella-tradizione-emiliano-romagnola-bestiario-popolare"/>
+    <hyperlink ref="B662" r:id="rId510" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/pubblicazioni-varie/pesca-e-nettarina-marketing-e-strategie-commerciali"/>
+    <hyperlink ref="B663" r:id="rId511" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/pubblicazioni-varie/ricerca-di-mercato-in-germania-e-francia-per-la-promozione-delle-piante-ornamentali-da-esterno-prodotte-in-emilia-romagna"/>
+    <hyperlink ref="B665" r:id="rId512" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/collana-quaderni-di-alimentazione/olivo-e-olio.-il-sapore-mediterraneo-in-cucina-ii-edizione"/>
+    <hyperlink ref="B667" r:id="rId513" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/ricettari-e-pubblicazioni-per-lorientamento-ai-consumi-alimentari/dal-fornello-al-computer-100-ricette-emiliane-e-romagnole-ii-ed.-riveduta-e-ampliata"/>
+    <hyperlink ref="B668" r:id="rId514" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/ricettari-e-pubblicazioni-per-lorientamento-ai-consumi-alimentari/frutta-e-verdura-salute-e-bellezza-a-tavola"/>
+    <hyperlink ref="B669" r:id="rId515" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/ricettari-e-pubblicazioni-per-lorientamento-ai-consumi-alimentari/quaderni-dinformazione-alimentare"/>
+    <hyperlink ref="B670" r:id="rId516" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/ricettari-e-pubblicazioni-per-lorientamento-ai-consumi-alimentari/sapori-e-valori-dellemilia-romagna"/>
+    <hyperlink ref="B672" r:id="rId517" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/pubblicazioni-per-le-scuole/a-spasso-con-pilin-piccole-avventure-alla-scoperta-di-unagricoltura-rispettosa-dellambiente-ii-edizione"/>
+    <hyperlink ref="B673" r:id="rId518" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/pubblicazioni-per-le-scuole/i-viaggi-di-sofia-alla-scoperta-di-come-si-producono-miele-latte-marmellate"/>
+    <hyperlink ref="B675" r:id="rId519" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/audiovisivi-cassette-vhs/la-divulgazione-agricola"/>
+    <hyperlink ref="B676" r:id="rId520" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/audiovisivi-cassette-vhs/progetto-lotta-integrata"/>
+    <hyperlink ref="B677" r:id="rId521" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/audiovisivi-cassette-vhs/il-servizio-di-assistenza-tecnica-agli-allevamenti"/>
+    <hyperlink ref="B678" r:id="rId522" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/audiovisivi-cassette-vhs/i-servizi-di-sviluppo-agricolo"/>
+    <hyperlink ref="B679" r:id="rId523" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/audiovisivi-cassette-vhs/il-rilevamento-dei-suoli-nelle-aziende"/>
+    <hyperlink ref="B680" r:id="rId524" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/audiovisivi-cassette-vhs/lassistenza-tecnica-allimpresa"/>
+    <hyperlink ref="B681" r:id="rId525" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/audiovisivi-cassette-vhs/i-disciplinari-di-produzione-integrata"/>
+    <hyperlink ref="B682" r:id="rId526" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/audiovisivi-cassette-vhs/controllo-delle-infestanti"/>
+    <hyperlink ref="B683" r:id="rId527" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/audiovisivi-cassette-vhs/effluenti-di-allevamento-gestione-e-utilizzo"/>
+    <hyperlink ref="B684" r:id="rId528" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/audiovisivi-cassette-vhs/il-servizio-fitosanitario-dellemilia-romagna"/>
+    <hyperlink ref="B685" r:id="rId529" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/audiovisivi-cassette-vhs/qualita-in-agricoltura"/>
+    <hyperlink ref="B686" r:id="rId530" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/audiovisivi-cassette-vhs/qualita-controllata-in-zootecnia"/>
+    <hyperlink ref="B687" r:id="rId531" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/audiovisivi-cassette-vhs/essere-agriturismo"/>
+    <hyperlink ref="B688" r:id="rId532" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/audiovisivi-cassette-vhs/sharka"/>
+    <hyperlink ref="B689" r:id="rId533" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/audiovisivi-cassette-vhs/la-pioppicoltura"/>
+    <hyperlink ref="B690" r:id="rId534" display="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;trp=false&amp;ctext=Il%20rilevamento%20dei%20suoli%20nelle%20aziende&amp;sprop=https%3A%2F%2Fgeoportale.regione.emilia-romagna.it%2Fit%2Fcatalogo%2Fmateriale-cartografico%2Fpubblicazioni%2Fagricoltura-e-alimentazione%2Faudiovisivi-cassette-vhs%2Fil-rilevamento-dei-suoli-nelle-aziende-1&amp;sprop=name:Il%20rilevamento%20dei%20suoli%20nelle%20aziende&amp;details=Da%20un%20corso%20di%20formazione%20in%20pedologia%20per%20tecnici%20regionali%2C%20vengono%20illustrate%20le%20pi%C3%B9%20semplici%20metodiche%20di%20riconoscimento%20dei%20suoli.%20Attraverso%20semplici%20indagini%20di%20campo%2C%20si%20possono%20apprezzare%20le%20caratteristiche%20principali%20di%20un%20terreno%20e%20fornire%20quindi%20ai%20produttori%20utili%20indicazioni%20che%20dovr%20%E2%80%A6%0A%0AVisualizza%20dettagli%20(link%20al%20sito):%20https%3A%2F%2Fgeoportale.regione.emilia-romagna.it%2Fit%2Fcatalogo%2Fmateriale-cartografico%2Fpubblicazioni%2Fagricoltura-e-alimentazione%2Faudiovisivi-cassette-vhs%2Fil-rilevamento-dei-suoli-nelle-aziende-1"/>
+    <hyperlink ref="B692" r:id="rId535" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/manifesti/autunno-manifesto-formato-70-x-100"/>
+    <hyperlink ref="B693" r:id="rId536" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/manifesti/estate-manifesto-formato-70-x-100"/>
+    <hyperlink ref="B694" r:id="rId537" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/manifesti/inverno-manifesto-formato-70-x-100"/>
+    <hyperlink ref="B695" r:id="rId538" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/agricoltura-e-alimentazione/manifesti/primavera-manifesto-formato-70-x-100"/>
+    <hyperlink ref="B698" r:id="rId539" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-naturalistica/aspetti-naturalistici-delle-zone-umide-salmastre-dellemilia-romagna"/>
+    <hyperlink ref="B699" r:id="rId540" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-naturalistica/flora-spontanea-protetta-prodotti-del-sottobosco-e-funghi"/>
+    <hyperlink ref="B700" r:id="rId541" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-naturalistica/flora-e-vegetazione-dellemilia-romagna"/>
+    <hyperlink ref="B701" r:id="rId542" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-naturalistica/la-foresta-panfilia-o-bosco-di-s.agostino"/>
+    <hyperlink ref="B702" r:id="rId543" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-naturalistica/aspetti-naturalistici-di-alcune-zone-umide-di-acqua-dolce-della-bassa-pianura-padana"/>
+    <hyperlink ref="B703" r:id="rId544" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-naturalistica/il-monte-nero"/>
+    <hyperlink ref="B704" r:id="rId545" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-naturalistica/le-salse-dellemilia-romagna"/>
+    <hyperlink ref="B705" r:id="rId546" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-naturalistica/i-boschi-dellemilia-romagna"/>
+    <hyperlink ref="B706" r:id="rId547" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-naturalistica/le-foreste-di-campigna-lama-nellappennino-tosco-romagnolo"/>
+    <hyperlink ref="B707" r:id="rId548" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-naturalistica/la-valle-del-marecchia"/>
+    <hyperlink ref="B708" r:id="rId549" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-naturalistica/aspetti-naturalistici-delle-zone-umide-salmastre-dellemilia-romagna-1"/>
+    <hyperlink ref="B709" r:id="rId550" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-naturalistica/oltre-il-limite-degli-alberi"/>
+    <hyperlink ref="B710" r:id="rId551" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-naturalistica/le-ofioliti-dellappennino-emiliano"/>
+    <hyperlink ref="B711" r:id="rId552" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-naturalistica/la-vena-del-gesso"/>
+    <hyperlink ref="B712" r:id="rId553" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-naturalistica/i-funghi-dellemilia-romagna"/>
+    <hyperlink ref="B713" r:id="rId554" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-naturalistica/geositi-testimoni-del-tempo-fondamenti-per-la-conservazione-del-patrimonio-geologico"/>
+    <hyperlink ref="B715" r:id="rId555" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-aree-protette-della-regione-emilia-romagna/parco-regionale-alto-appennino-reggiano-parco-del-gigante"/>
+    <hyperlink ref="B716" r:id="rId556" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-aree-protette-della-regione-emilia-romagna/parchi-e-riserve-dellemilia-romagna-26-cartine-con-informazioni-naturalistiche-e-storiche-punti-di-interesse-notizie-e-itinerari-consigliati"/>
+    <hyperlink ref="B717" r:id="rId557" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-aree-protette-della-regione-emilia-romagna/parco-regionale-fluviale-del-taro"/>
+    <hyperlink ref="B718" r:id="rId558" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-aree-protette-della-regione-emilia-romagna/riserva-naturale-di-alfonsine"/>
+    <hyperlink ref="B719" r:id="rId559" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-aree-protette-della-regione-emilia-romagna/parco-regionale-corno-alle-scale"/>
+    <hyperlink ref="B720" r:id="rId560" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-aree-protette-della-regione-emilia-romagna/parco-regionale-sassi-di-roccamalatina"/>
+    <hyperlink ref="B721" r:id="rId561" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-aree-protette-della-regione-emilia-romagna/parco-regionale-fluviale-dello-stirone"/>
+    <hyperlink ref="B722" r:id="rId562" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-aree-protette-della-regione-emilia-romagna/riserva-naturale-orientata-di-onferno"/>
+    <hyperlink ref="B723" r:id="rId563" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-aree-protette-della-regione-emilia-romagna/parco-regionale-dellalto-appennino-modenese"/>
+    <hyperlink ref="B724" r:id="rId564" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-aree-protette-della-regione-emilia-romagna/riserva-naturale-orientata-cassa-di-espansione-del-fiume-secchia"/>
+    <hyperlink ref="B725" r:id="rId565" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-aree-protette-della-regione-emilia-romagna/parco-regionale-gessi-bolognesi-e-calanchi-dellabbadessa"/>
+    <hyperlink ref="B726" r:id="rId566" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-aree-protette-della-regione-emilia-romagna/riserva-naturale-orientata-bosco-di-scardavilla"/>
+    <hyperlink ref="B727" r:id="rId567" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-aree-protette-della-regione-emilia-romagna/parco-storico-regionale-monte-sole"/>
+    <hyperlink ref="B728" r:id="rId568" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-aree-protette-della-regione-emilia-romagna/riserva-naturale-orientata-bosco-della-frattona"/>
+    <hyperlink ref="B729" r:id="rId569" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/collana-aree-protette-della-regione-emilia-romagna/parco-regionale-della-vena-del-gesso-romagnola"/>
+    <hyperlink ref="B731" r:id="rId570" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/altri-titoli/alberi-e-arbusti-dellemilia-romagna"/>
+    <hyperlink ref="B732" r:id="rId571" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/altri-titoli/case-di-pietra-il-recupero-del-patrimonio-edilizio-nel-demanio-forestale"/>
+    <hyperlink ref="B733" r:id="rId572" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/altri-titoli/guida-alle-piante-legnose-dellemilia-romagna"/>
+    <hyperlink ref="B734" r:id="rId573" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/altri-titoli/parco-regionale-dellalto-appennino-modenese-lambiente-vegetale"/>
+    <hyperlink ref="B735" r:id="rId574" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/altri-titoli/atlante-della-flora-protetta-della-regione-emilia-romagna"/>
+    <hyperlink ref="B736" r:id="rId575" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/altri-titoli/atlante-delle-pteridofite-nella-regione-emilia-romagna-riconoscimento-distribuzione-e-note-sullecologia-delle-felci-e-piante-affini-in-emilia-romagna"/>
+    <hyperlink ref="B737" r:id="rId576" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/altri-titoli/atlante-dei-macromiceti-della-regione-emilia-romagna-valutazioni-della-biodiversita-micologica-nel-territorio-regionale-nelle-singole-provincie-nelle-aree-protette-e-in-boschi-di-particolare-interesse-ambientale"/>
+    <hyperlink ref="B738" r:id="rId577" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/altri-titoli/la-flora-di-altitudine-dellappennino-tosco-emiliano"/>
+    <hyperlink ref="B739" r:id="rId578" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/altri-titoli/le-aree-di-riequilibrio-ecologico-una-peculiarita-della-regione-emilia-romagna"/>
+    <hyperlink ref="B740" r:id="rId579" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/altri-titoli/lista-rossa-degli-uccelli-nidificanti-in-emilia-romagna-indicazioni-per-la-conservazione-dellavifauna-regionale"/>
+    <hyperlink ref="B741" r:id="rId580" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/altri-titoli/rete-natura-2000-in-emilia-romagna-manuale-per-conoscere-e-conservare-la-biodiversita"/>
+    <hyperlink ref="B742" r:id="rId581" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/altri-titoli/fauna-minore-tutela-e-conservazione-in-emilia-romagna"/>
+    <hyperlink ref="B744" r:id="rId582" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/poster/funghi-poster-colore-formato-cm-70-x-100"/>
+    <hyperlink ref="B745" r:id="rId583" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/poster/flora-spontanea-protetta-tav.-ii-poster-colore-formato-cm-70-x-100"/>
+    <hyperlink ref="B746" r:id="rId584" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/poster/mammiferi-fauna-minore-dellemilia-romagna-poster-colore"/>
+    <hyperlink ref="B747" r:id="rId585" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/poster/pesci-fauna-minore-dellemilia-romagna-poster-colore"/>
+    <hyperlink ref="B748" r:id="rId586" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/poster/pipistrelli-fauna-minore-dellemilia-romagna-poster-colore"/>
+    <hyperlink ref="B750" r:id="rId587" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/alta-via-dei-parchi/alta-via-dei-parchi"/>
+    <hyperlink ref="B751" r:id="rId588" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/alta-via-dei-parchi/il-taccuino-dellescursionista-moleskine"/>
+    <hyperlink ref="B752" r:id="rId589" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/alta-via-dei-parchi/alta-via-dei-parchi-carte-escursionistiche-1-50.000.-cofanetto-contenente-8-carte"/>
+    <hyperlink ref="B753" r:id="rId590" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/alta-via-dei-parchi/alta-via-dei-parchi-carta-nr.-1-alto-appennino-parmense-parco-nazionale-appennino-tosco-emiliano-e-parco-regionale-valli-del-cedra-e-del-parma"/>
+    <hyperlink ref="B754" r:id="rId591" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/alta-via-dei-parchi/alta-via-dei-parchi-carta-nr.-2-alto-appennino-reggiano-parco-nazionale-appennino-tosco-emiliano"/>
+    <hyperlink ref="B755" r:id="rId592" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/alta-via-dei-parchi/alta-via-dei-parchi-carta-nr.-3-alto-appennino-modenese-parco-regionale-alto-appennino-modenese-e-parco-regionale-corno-alle-scale"/>
+    <hyperlink ref="B756" r:id="rId593" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/alta-via-dei-parchi/alta-via-dei-parchi-carta-nr.-4-alto-appennino-bolognese-parco-regionale-corno-alle-scale-e-parco-regionale-laghi-di-suviana-e-brasimone"/>
+    <hyperlink ref="B757" r:id="rId594" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/alta-via-dei-parchi/alta-via-dei-parchi-carta-nr.-5-appennino-imolese-parco-regionale-vena-del-gesso-romagnola-ovest"/>
+    <hyperlink ref="B758" r:id="rId595" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/alta-via-dei-parchi/alta-via-dei-parchi-carta-nr.-6-appennino-faentino-parco-regionale-vena-del-gesso-romagnola"/>
+    <hyperlink ref="B759" r:id="rId596" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/alta-via-dei-parchi/alta-via-dei-parchi-carta-nr.-7-alto-appennino-forlivese-parco-nazionale-foreste-casentinesi-monte-falterona-e-campigna-nord"/>
+    <hyperlink ref="B760" r:id="rId597" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/alta-via-dei-parchi/alta-via-dei-parchi-carta-nr.-8-alto-appennino-forlivese-e-cesenate-parco-nazionale-foreste-casentinesi-monte-falterona-e-campigna-sud"/>
+    <hyperlink ref="B761" r:id="rId598" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/alta-via-dei-parchi/meridiani-montagne"/>
+    <hyperlink ref="B763" r:id="rId599" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/riviste/storie-naturali-n.6-2011"/>
+    <hyperlink ref="B764" r:id="rId600" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/riviste/storie-naturali-n.7-2013"/>
+    <hyperlink ref="B765" r:id="rId601" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/riviste/storie-naturali-n.9-2015"/>
+    <hyperlink ref="B767" r:id="rId602" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/fauna-minore/fauna-minore-tutela-e-conservazione-in-emilia-romagna"/>
+    <hyperlink ref="B768" r:id="rId603" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/fauna-minore/mammiferi-fauna-minore-dellemilia-romagna-poster-colore"/>
+    <hyperlink ref="B769" r:id="rId604" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/fauna-minore/pesci-fauna-minore-dellemilia-romagna-poster-colore"/>
+    <hyperlink ref="B770" r:id="rId605" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/fauna-minore/pipistrelli-fauna-minore-dellemilia-romagna-poster-colore"/>
+    <hyperlink ref="B771" r:id="rId606" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/fauna-minore/anfibi-fauna-minore-dellemilia-romagna-poster-colore"/>
+    <hyperlink ref="B772" r:id="rId607" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/fauna-minore/coleotteri-fauna-minore-dellemilia-romagna-poster-colore"/>
+    <hyperlink ref="B773" r:id="rId608" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/fauna-minore/farfalle-fauna-minore-dellemilia-romagna-poster-colore"/>
+    <hyperlink ref="B774" r:id="rId609" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/fauna-minore/rettili-fauna-minore-dellemilia-romagna-poster-colore"/>
+    <hyperlink ref="B776" r:id="rId610" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/ambiente-e-natura/ciclovie-dei-parchi/ciclovie-dei-parchi"/>
+    <hyperlink ref="B779" r:id="rId611" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/urbanistica/piano-territoriale-paesistico-regionale"/>
+    <hyperlink ref="B780" r:id="rId612" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/urbanistica/decisione-delle-osservazioni-presentate-al-piano-territoriale-paesistico-regionale-bollettino-ufficiale-regione-emilia-romagna-n.75-del-08-09-1993"/>
+    <hyperlink ref="B781" r:id="rId613" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/urbanistica/la-citta-di-domani-strategie-programmi-progetti-di-riqualificazione-urbana.-forum-2000-atti-del-convegno-internazionale-bologna-24-25-gennaio-2000"/>
+    <hyperlink ref="B783" r:id="rId614" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/archeologia/paesaggio-archeologico-regionale-primi-elementi-per-il-rilievo-in-emilia-romagna"/>
+    <hyperlink ref="B784" r:id="rId615" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/archeologia/elementi-archeologici-in-emilia-romagna-vincoli-relativi-alla-legge-1089-del-1-giugno-1939"/>
+    <hyperlink ref="B786" r:id="rId616" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/geologia/progetto-cartografia-geologica-atti-del-seminario-bologna-22-23-febbraio-1985"/>
+    <hyperlink ref="B787" r:id="rId617" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/geologia/geologia-delle-grandi-aree-urbane-progetto-strategico-cnr-atti-del-convegno-bologna-4-5-novembre-1997"/>
+    <hyperlink ref="B788" r:id="rId618" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/geologia/i-numeri-sulle-frane"/>
+    <hyperlink ref="B789" r:id="rId619" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/geologia/le-pianure-conoscenza-e-salvaguardia.-il-contributo-delle-scienze-della-terra-atti-del-convegno-ferrara-8119-novembre-1999"/>
+    <hyperlink ref="B790" r:id="rId620" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/geologia/riserve-idriche-sotterranee-della-regione-emilia-romagna-cofanetto-contenente-la-relazione-e-9-allegati-cartografici"/>
+    <hyperlink ref="B791" r:id="rId621" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/geologia/note-illustrative-della-carta-del-dissesto-geologico-attuale-foglio-218-se-carpineti-scala-1-25.000"/>
+    <hyperlink ref="B792" r:id="rId622" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/geologia/manuale-cromatico-di-riferimento-per-la-stampa-delle-carte-geologiche-carta-geologica-ditalia-progetto-carg"/>
+    <hyperlink ref="B793" r:id="rId623" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/geologia/raccontare-la-terra-14-itinerari-geologici-in-emilia-romagna"/>
+    <hyperlink ref="B794" r:id="rId624" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/geologia/i-dinosauri-italiani-e-altri-vertebrati-fossili-del-nostro-paese-guida-fotografica-alla-mostramuseo-geologico-giovanni-capellini-bologna5-settembre-2009-11-gennaio-2010"/>
+    <hyperlink ref="B795" r:id="rId625" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/geologia/museo-geologico-giovanni-capellini-guida-breve-per-immagini-short-picture-guide"/>
+    <hyperlink ref="B796" r:id="rId626" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/geologia/1st-european-congress-on-regional-geological-cartography-and-information-systems-bologna-june-13-16-1994-proceedings-volume-i"/>
+    <hyperlink ref="B797" r:id="rId627" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/geologia/speleologia-e-geositi-carsici-in-emilia-romagna"/>
+    <hyperlink ref="B798" r:id="rId628" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/geologia/la-pianura-geologia-suoli-e-ambienti-in-emilia-romagna"/>
+    <hyperlink ref="B799" r:id="rId629" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/geologia/il-sistema-mare-costa-dellemilia-romagna"/>
+    <hyperlink ref="B800" r:id="rId630" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/geologia/acqua-dalle-rocce-una-ricchezza-della-montagna"/>
+    <hyperlink ref="B802" r:id="rId631" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/pedologia/i-suoli-dellemilia-romagna-note-illustrative-e-carta-alla-scala-1-250.000"/>
+    <hyperlink ref="B803" r:id="rId632" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/pedologia/cartografia-tematica-per-la-valutazione-del-territorio-del-comprensorio-della-bassa-pianura-modenese"/>
+    <hyperlink ref="B804" r:id="rId633" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/pedologia/cartografia-tematica-per-la-valutazione-del-territorio-comprensorio-monte-cavallo-corno-alle-scale"/>
+    <hyperlink ref="B805" r:id="rId634" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/pedologia/i-suoli-della-pianura-modenese"/>
+    <hyperlink ref="B806" r:id="rId635" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/pedologia/i-suoli-della-collina-cesenate"/>
+    <hyperlink ref="B807" r:id="rId636" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/pedologia/i-suoli-della-bassa-pianura-ravennate"/>
+    <hyperlink ref="B808" r:id="rId637" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/pedologia/carta-pedologica-provincia-di-ferrara-prima-raccolta-ed-analisi-dei-dati-chimici-e-fisici-dei-suoli-della-provincia-di-ferrara"/>
+    <hyperlink ref="B809" r:id="rId638" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/pedologia/carta-pedologica-provincia-di-forli-prima-raccolta-ed-analisi-dei-dati-chimici-e-fisici-dei-suoli-della-provincia-di-forli"/>
+    <hyperlink ref="B810" r:id="rId639" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/pedologia/carta-pedologica-provincia-di-bologna-prima-raccolta-ed-analisi-dei-dati-chimici-e-fisici-dei-suoli-della-provincia-di-bologna"/>
+    <hyperlink ref="B811" r:id="rId640" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/pedologia/carta-pedologica-provincia-di-modena-prima-raccolta-ed-analisi-dei-dati-chimici-e-fisici-dei-suoli-della-provincia-di-modena"/>
+    <hyperlink ref="B812" r:id="rId641" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/pedologia/carta-pedologica-provincia-di-ravenna-prima-raccolta-ed-analisi-dei-dati-chimici-e-fisici-dei-suoli-della-provincia-di-ravenna"/>
+    <hyperlink ref="B813" r:id="rId642" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/pedologia/carta-pedologica-provincia-di-parma-prima-raccolta-ed-analisi-dei-dati-chimici-e-fisici-dei-suoli-della-provincia-di-parma"/>
+    <hyperlink ref="B814" r:id="rId643" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/pedologia/carta-pedologica-provincia-di-piacenza-prima-raccolta-ed-analisi-dei-dati-chimici-e-fisici-dei-suoli-della-provincia-di-piacenza"/>
+    <hyperlink ref="B815" r:id="rId644" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/pedologia/capacita-duso-dei-suoli-della-regione-emilia-romagna-con-carta-della-capacita-duso-dei-suoli-alla-scala-1-200.000"/>
+    <hyperlink ref="B817" r:id="rId645" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/topografia/carta-tecnica-regionale-alla-scala-1-5.000-formazione-della-c.t.r.-capitolato-speciale-dappalto-norme-per-il-disegno-e-segni-convenzionali"/>
+    <hyperlink ref="B818" r:id="rId646" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/topografia/carta-tecnica-regionale-alla-scala-1-5.000-contenuto-norme-per-il-disegno-e-segni-convenzionali"/>
+    <hyperlink ref="B819" r:id="rId647" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/topografia/carta-tecnica-regionale-determinazioni-topografiche-nella-formazione-della-carta-tecnica-regionale-raffittimento-di-reti-geodetiche-punti-fotografici-dappoggio-punti-stabili-di-riferimento"/>
+    <hyperlink ref="B820" r:id="rId648" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/topografia/carta-tecnica-regionale-norme-per-lesecuzione-di-poligonali-geodimetriche-sostitutive-delle-reti-di-raffittimento"/>
+    <hyperlink ref="B821" r:id="rId649" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/topografia/carta-tecnica-regionale-norme-per-la-localizzazione-dei-punti-dappoggio-dei-blocchi-per-la-compensazione-con-il-programma-di-ackermann"/>
+    <hyperlink ref="B822" r:id="rId650" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/topografia/carte-generali-a-grande-scala-1-1.000-contenuto-norme-per-il-disegno-segni-convenzionali"/>
+    <hyperlink ref="B823" r:id="rId651" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/topografia/carte-generali-a-grande-scala-1-2.000-contenuto-norme-per-il-disegno-segni-convenzionali"/>
+    <hyperlink ref="B824" r:id="rId652" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/topografia/carte-generali-a-grande-scala-1-1.000-e-1-2.000-capitolato-speciale-dappalto-contenuto-norme-per-il-disegno-segni-convenzionali"/>
+    <hyperlink ref="B825" r:id="rId653" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/topografia/carta-tecnica-regionale-istruzioni-per-luso-dei-modelli-di-calcolo-segni-convenzionali-grafici"/>
+    <hyperlink ref="B826" r:id="rId654" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/topografia/cartografia-numerica-a-scala-1-500-capitolato-speciale-dappalto-prescrizioni-tecniche-repertorio-degli-elementi-e-delle-entita-contenuti-e-codici-bozza"/>
+    <hyperlink ref="B827" r:id="rId655" display="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;trp=false&amp;ctext=Cartografia%20Fotogrammetrica%20numerica%20a%20scala%201%3A1.000%20-%20Capitolato%20speciale%20d%27appalto%3B%20repertorio%20degli%20elementi%20e%20delle%20entit%C3%A0%20-%20bozza&amp;sprop=https%3A%2F%2Fgeoportale.regione.emilia-romagna.it%2Fit%2Fcatalogo%2Fmateriale-cartografico%2Fpubblicazioni%2Fcartografia-e-territorio%2Ftopografia%2Fcartografia-fotogrammetrica-numerica-a-scala-1-1.000-capitolato-speciale-dappalto-repertorio-degli-elementi-e-delle-entita-bozza&amp;sprop=name:Cartografia%20Fotogrammetrica%20numerica%20a%20scala%201%3A1.000%20-%20Capitolato%20speciale%20d%27appalto%3B%20repertorio%20degli%20elementi%20e%20delle%20entit%C3%A0%20-%20bozza&amp;details=.%0A%0AVisualizza%20dettagli%20(link%20al%20sito):%20https%3A%2F%2Fgeoportale.regione.emilia-romagna.it%2Fit%2Fcatalogo%2Fmateriale-cartografico%2Fpubblicazioni%2Fcartografia-e-territorio%2Ftopografia%2Fcartografia-fotogrammetrica-numerica-a-scala-1-1.000-capitolato-speciale-dappalto-repertorio-degli-elementi-e-delle-entita-bozza"/>
+    <hyperlink ref="B828" r:id="rId656" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/topografia/cartografia-fotogrammetrica-numerica-a-scala-1-2.000-capitolato-speciale-dappalto-repertorio-degli-elementi-e-delle-entita-bozza"/>
+    <hyperlink ref="B829" r:id="rId657" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/topografia/la-cartografia-tematica-nella-pianificazione-territoriale-atti-della-tavola-rotonda-palazzo-pepoli-bologna-30-settembre-1976"/>
+    <hyperlink ref="B830" r:id="rId658" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/topografia/carta-fotogrammetrica-numerica-alla-scala-1-5.000-capitolato-speciale-dappalto-prescrizioni-tecniche-per-lesecuzione-e-il-collaudo-repertorio-degli-elementi-e-delle-entita"/>
+    <hyperlink ref="B832" r:id="rId659" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/escursionismo-e-turismo/emilia-romagna-tra-pianura-e-collina-cofanetto"/>
+    <hyperlink ref="B833" r:id="rId660" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/escursionismo-e-turismo/le-vie-del-duca-recupero-dellantica-viabilita-nella-pedemontana-modenese-ovest"/>
+    <hyperlink ref="B834" r:id="rId661" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/escursionismo-e-turismo/in-viaggio-lungo-il-reno"/>
+    <hyperlink ref="B835" r:id="rId662" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/cartografia-e-territorio/carta-del-corso-del-fiume-po"/>
+    <hyperlink ref="B837" r:id="rId663" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/educazione-ambientale/leducazione-ambientale-in-poche-parole-breve-itinerario-tra-le-parole-chiave-di-una-attivita-complessa-e-affascinante"/>
+    <hyperlink ref="B838" r:id="rId664" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/educazione-ambientale/leuropa-sostenibile-ha-bisogno-di-educazione"/>
+    <hyperlink ref="B839" r:id="rId665" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/educazione-ambientale/una-nuova-frontiera-di-liberta-culture-e-politiche-per-un-futuro-sostenibile"/>
+    <hyperlink ref="B840" r:id="rId666" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/educazione-ambientale/nuovi-educatori-ambientali-2-esperienze-seminariali-nel-master-in-educazione-ambientale"/>
+    <hyperlink ref="B841" r:id="rId667" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/educazione-ambientale/nuovi-educatori-ambientali-1-il-concorso-dei-saperi-al-master-in-educazione-ambientale"/>
+    <hyperlink ref="B842" r:id="rId668" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/educazione-ambientale/una-rete-di-scuole-per-lo-sviluppo-sostenibile"/>
+    <hyperlink ref="B843" r:id="rId669" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/pubblicazioni/educazione-ambientale/dal-piano-di-azione-ambientale-alla-proposta-educativa"/>
+    <hyperlink ref="B845" r:id="rId670" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/altro-materiale/tematismi-numerici-tratti-dalla-carta-tecnica-regionale-1-10.000-edizione-1991"/>
+    <hyperlink ref="B846" r:id="rId671" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/altro-materiale/carta-escursionistica-della-regione-emilia-romagna-1-5.000-coperture-vettoriali-edizione-2008"/>
+    <hyperlink ref="B847" r:id="rId672" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/altro-materiale/carta-escursionistica-della-regione-emilia-romagna-1-50.000-immagini-raster-edizione-2007"/>
+    <hyperlink ref="B848" r:id="rId673" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/altro-materiale/carta-geologica-dellappennino-emiliano-romagnolo-1-10.000-immagini-raster-edizione-2002"/>
+    <hyperlink ref="B849" r:id="rId674" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/altro-materiale/carta-storica-regionale-uso-del-suolo-storico-edizione-2007"/>
+    <hyperlink ref="B850" r:id="rId675" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/altro-materiale/carte-della-vegetazione-e-della-naturalita-dei-parchi-regionali-e-di-altre-zone.-coperture-vettoriali-1-10.000-1-25.000-edizione-2004"/>
+    <hyperlink ref="B851" r:id="rId676" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/altro-materiale/carta-degli-habitat-dei-sic-e-delle-zps-dellemilia-romagna-edizione-2007"/>
+    <hyperlink ref="B852" r:id="rId677" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/altro-materiale/1976-coperture-vettoriali-delluso-del-suolo-edizione-2011-dvd-1"/>
+    <hyperlink ref="B853" r:id="rId678" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/altro-materiale/1994-coperture-vettoriali-delluso-del-suolo-edizione-2010-dvd"/>
+    <hyperlink ref="B854" r:id="rId679" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/altro-materiale/2003-coperture-vettoriali-delluso-del-suolo-edizione-2011-dvd"/>
+    <hyperlink ref="B855" r:id="rId680" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/altro-materiale/2008-coperture-vettoriali-delluso-del-suolo-edizione-2011-dvd"/>
+    <hyperlink ref="B856" r:id="rId681" display="https://geoportale.regione.emilia-romagna.it/it/catalogo/materiale-cartografico/altro-materiale/database-della-vegetazione-dei-parchi-regionali-gessi-bolognesi-e-calanchi-dellabbadessa-laghi-di-suviana-e-brasimone-abbazia-di-monteveglio-monte-sole"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId360"/>
-  <drawing r:id="rId361"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId682"/>
+  <drawing r:id="rId683"/>
 </worksheet>
 </file>